--- a/DecisionTree/DecisionTreeRegressor/MSE.xlsx
+++ b/DecisionTree/DecisionTreeRegressor/MSE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GD\DS\zOutros_Materiais\N\MateriaisParaEstudo\Github\DecisionTree\DecisionTreeRegressor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GD\DS\DS_Share\Github\DecisionTree\DecisionTreeRegressor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0228F8EB-FDF1-4D03-BB15-99527D1488D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494B25BA-9268-4BD8-9B60-7BA74ACFA58E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Split_X1" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -142,6 +142,9 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -304,46 +307,46 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1040.9365079365077</c:v>
+                  <c:v>776.41121031746025</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>877.58323494687136</c:v>
+                  <c:v>733.29456906729627</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>861.64952380952388</c:v>
+                  <c:v>774.59452380952382</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>838.94412698412714</c:v>
+                  <c:v>619.44003527336849</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1068.1747271825395</c:v>
+                  <c:v>604.44642857142856</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1181.997084548105</c:v>
+                  <c:v>727.77988338192415</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1167.5172902494328</c:v>
+                  <c:v>749.06831065759627</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1151.690864197531</c:v>
+                  <c:v>800.96864197530874</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1116.9864285714286</c:v>
+                  <c:v>811.75285714285712</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1048.6008133280861</c:v>
+                  <c:v>780.90600813328092</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>867.11855158730179</c:v>
+                  <c:v>618.85515873015879</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>986.11158072696549</c:v>
+                  <c:v>688.31487743026207</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1106.879120879121</c:v>
+                  <c:v>758.59340659340671</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1161.7755102040815</c:v>
+                  <c:v>784.51530612244903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -628,25 +631,25 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>99</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>75</c:v>
@@ -718,10 +721,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -776,7 +779,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -788,10 +791,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -828,7 +831,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>14</c:v>
@@ -843,10 +846,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>64.400000000000006</c:v>
+                  <c:v>55.222222222222221</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64.400000000000006</c:v>
+                  <c:v>55.222222222222221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1110,46 +1113,46 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>15</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1434,46 +1437,46 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>15</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1561,10 +1564,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4397,8 +4400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -4430,7 +4433,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="19.7" x14ac:dyDescent="0.35">
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="3"/>
@@ -4485,18 +4488,18 @@
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1">
         <f>AVERAGE($C$6:C7)</f>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G6" s="1">
         <f>AVERAGE(C8:$C$19)</f>
-        <v>58.666666666666664</v>
+        <v>46.416666666666664</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -4505,7 +4508,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1">
         <f>E6+1</f>
@@ -4513,11 +4516,11 @@
       </c>
       <c r="F7" s="1">
         <f>AVERAGE($C$6:C7)</f>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G7" s="1">
         <f>AVERAGE(C9:$C$19)</f>
-        <v>61.272727272727273</v>
+        <v>48.81818181818182</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -4526,7 +4529,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" ref="E8:E19" si="0">E7+1</f>
@@ -4534,11 +4537,11 @@
       </c>
       <c r="F8" s="1">
         <f>AVERAGE($C$6:C8)</f>
-        <v>16.666666666666668</v>
+        <v>23.333333333333332</v>
       </c>
       <c r="G8" s="1">
         <f>AVERAGE(C10:$C$19)</f>
-        <v>64.400000000000006</v>
+        <v>51.7</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -4547,7 +4550,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
@@ -4555,11 +4558,11 @@
       </c>
       <c r="F9" s="1">
         <f>AVERAGE($C$6:C10)</f>
-        <v>35.6</v>
+        <v>22</v>
       </c>
       <c r="G9" s="1">
         <f>AVERAGE(C11:$C$19)</f>
-        <v>60.666666666666664</v>
+        <v>55.222222222222221</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -4568,7 +4571,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="1">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
@@ -4576,11 +4579,11 @@
       </c>
       <c r="F10" s="1">
         <f>AVERAGE($C$6:C11)</f>
-        <v>45.833333333333336</v>
+        <v>34.5</v>
       </c>
       <c r="G10" s="1">
         <f>AVERAGE(C12:$C$19)</f>
-        <v>56.125</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -4597,7 +4600,7 @@
       </c>
       <c r="F11" s="1">
         <f>AVERAGE($C$6:C12)</f>
-        <v>53.428571428571431</v>
+        <v>36.714285714285715</v>
       </c>
       <c r="G11" s="1">
         <f>AVERAGE(C13:$C$19)</f>
@@ -4610,7 +4613,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="1">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="0"/>
@@ -4618,7 +4621,7 @@
       </c>
       <c r="F12" s="1">
         <f>AVERAGE($C$6:C12)</f>
-        <v>53.428571428571431</v>
+        <v>36.714285714285715</v>
       </c>
       <c r="G12" s="1">
         <f>AVERAGE(C14:$C$19)</f>
@@ -4639,7 +4642,7 @@
       </c>
       <c r="F13" s="1">
         <f>AVERAGE($C$6:C14)</f>
-        <v>58.111111111111114</v>
+        <v>45.111111111111114</v>
       </c>
       <c r="G13" s="1">
         <f>AVERAGE(C15:$C$19)</f>
@@ -4660,7 +4663,7 @@
       </c>
       <c r="F14" s="1">
         <f>AVERAGE($C$6:C15)</f>
-        <v>59.8</v>
+        <v>48.1</v>
       </c>
       <c r="G14" s="1">
         <f>AVERAGE(C16:$C$19)</f>
@@ -4681,7 +4684,7 @@
       </c>
       <c r="F15" s="1">
         <f>AVERAGE($C$6:C16)</f>
-        <v>60.81818181818182</v>
+        <v>50.18181818181818</v>
       </c>
       <c r="G15" s="1">
         <f>AVERAGE(C17:$C$19)</f>
@@ -4702,7 +4705,7 @@
       </c>
       <c r="F16" s="1">
         <f>AVERAGE($C$6:C17)</f>
-        <v>57.416666666666664</v>
+        <v>47.666666666666664</v>
       </c>
       <c r="G16" s="1">
         <f>AVERAGE(C18:$C$19)</f>
@@ -4723,7 +4726,7 @@
       </c>
       <c r="F17" s="1">
         <f>AVERAGE($C$6:C18)</f>
-        <v>53.769230769230766</v>
+        <v>44.769230769230766</v>
       </c>
       <c r="G17" s="1">
         <f>AVERAGE(C19:$C$19)</f>
@@ -4744,7 +4747,7 @@
       </c>
       <c r="F18" s="1">
         <f>AVERAGE($C$6:C18)</f>
-        <v>53.769230769230766</v>
+        <v>44.769230769230766</v>
       </c>
       <c r="G18" s="1">
         <f>AVERAGE(C$19:$C20)</f>
@@ -4765,7 +4768,7 @@
       </c>
       <c r="F19" s="1">
         <f>AVERAGE($C$6:C19)</f>
-        <v>51.714285714285715</v>
+        <v>43.357142857142854</v>
       </c>
       <c r="G19" s="1">
         <f>AVERAGE(C$19:$C21)</f>
@@ -4850,175 +4853,175 @@
     <row r="26" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C26" s="2">
         <f>(C6-$F$6)^2</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2">
         <f>(C6-$F$7)^2</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E26" s="2">
         <f>(E6-$F$8)^2</f>
-        <v>245.44444444444449</v>
+        <v>498.77777777777771</v>
       </c>
       <c r="F26" s="2">
         <f>($C6-$F$9)^2</f>
-        <v>655.36000000000013</v>
+        <v>64</v>
       </c>
       <c r="G26" s="2">
         <f>($C6-$F$10)^2</f>
-        <v>1284.0277777777781</v>
+        <v>20.25</v>
       </c>
       <c r="H26" s="2">
         <f t="shared" ref="H26:H31" si="3">($C6-$F$11)^2</f>
-        <v>1886.0408163265308</v>
+        <v>45.081632653061241</v>
       </c>
       <c r="I26" s="2">
         <f t="shared" ref="I26:I32" si="4">($C6-$F$12)^2</f>
-        <v>1886.0408163265308</v>
+        <v>45.081632653061241</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" ref="J26:J33" si="5">($C6-$F$13)^2</f>
-        <v>2314.6790123456794</v>
+        <v>228.34567901234578</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" ref="K26:K34" si="6">($C6-$F$14)^2</f>
-        <v>2480.0399999999995</v>
+        <v>327.61000000000007</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" ref="L26:L35" si="7">($C6-$F$15)^2</f>
-        <v>2582.4876033057853</v>
+        <v>407.30578512396687</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" ref="M26:M36" si="8">($C6-$F$16)^2</f>
-        <v>2248.3402777777774</v>
+        <v>312.11111111111103</v>
       </c>
       <c r="N26" s="2">
         <f t="shared" ref="N26:N37" si="9">($C6-$F$17)^2</f>
-        <v>1915.7455621301772</v>
+        <v>218.13017751479282</v>
       </c>
       <c r="O26" s="2">
         <f t="shared" ref="O26:O38" si="10">($C6-$F$18)^2</f>
-        <v>1915.7455621301772</v>
+        <v>218.13017751479282</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" ref="P26:P39" si="11">($C6-$F$19)^2</f>
-        <v>1740.0816326530612</v>
+        <v>178.41326530612236</v>
       </c>
     </row>
     <row r="27" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C27" s="1">
         <f t="shared" ref="C27:C39" si="12">(C7-$G$6)^2</f>
-        <v>2368.4444444444443</v>
+        <v>697.8402777777776</v>
       </c>
       <c r="D27" s="2">
         <f>(C7-$F$7)^2</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E27" s="2">
         <f>(E7-$F$8)^2</f>
-        <v>215.11111111111114</v>
+        <v>455.11111111111109</v>
       </c>
       <c r="F27" s="2">
         <f>($C7-$F$9)^2</f>
-        <v>655.36000000000013</v>
+        <v>4</v>
       </c>
       <c r="G27" s="2">
         <f>($C7-$F$10)^2</f>
-        <v>1284.0277777777781</v>
+        <v>210.25</v>
       </c>
       <c r="H27" s="2">
         <f t="shared" si="3"/>
-        <v>1886.0408163265308</v>
+        <v>279.36734693877554</v>
       </c>
       <c r="I27" s="2">
         <f t="shared" si="4"/>
-        <v>1886.0408163265308</v>
+        <v>279.36734693877554</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="5"/>
-        <v>2314.6790123456794</v>
+        <v>630.56790123456801</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="6"/>
-        <v>2480.0399999999995</v>
+        <v>789.61000000000013</v>
       </c>
       <c r="L27" s="2">
         <f t="shared" si="7"/>
-        <v>2582.4876033057853</v>
+        <v>910.9421487603305</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="8"/>
-        <v>2248.3402777777774</v>
+        <v>765.44444444444434</v>
       </c>
       <c r="N27" s="2">
         <f t="shared" si="9"/>
-        <v>1915.7455621301772</v>
+        <v>613.51479289940812</v>
       </c>
       <c r="O27" s="2">
         <f t="shared" si="10"/>
-        <v>1915.7455621301772</v>
+        <v>613.51479289940812</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" si="11"/>
-        <v>1740.0816326530612</v>
+        <v>545.55612244897941</v>
       </c>
     </row>
     <row r="28" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C28" s="1">
         <f t="shared" si="12"/>
-        <v>821.7777777777776</v>
+        <v>697.8402777777776</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" ref="D28:D39" si="13">(C8-$G$7)^2</f>
-        <v>977.98347107438019</v>
+        <v>830.48760330578523</v>
       </c>
       <c r="E28" s="2">
         <f>(E8-$F$8)^2</f>
-        <v>186.7777777777778</v>
+        <v>413.4444444444444</v>
       </c>
       <c r="F28" s="2">
         <f>($C8-$F$9)^2</f>
-        <v>31.360000000000017</v>
+        <v>4</v>
       </c>
       <c r="G28" s="2">
         <f>($C8-$F$10)^2</f>
-        <v>250.69444444444451</v>
+        <v>210.25</v>
       </c>
       <c r="H28" s="2">
         <f t="shared" si="3"/>
-        <v>548.89795918367361</v>
+        <v>279.36734693877554</v>
       </c>
       <c r="I28" s="2">
         <f t="shared" si="4"/>
-        <v>548.89795918367361</v>
+        <v>279.36734693877554</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="5"/>
-        <v>790.23456790123475</v>
+        <v>630.56790123456801</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="6"/>
-        <v>888.03999999999985</v>
+        <v>789.61000000000013</v>
       </c>
       <c r="L28" s="2">
         <f t="shared" si="7"/>
-        <v>949.76033057851248</v>
+        <v>910.9421487603305</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="8"/>
-        <v>751.67361111111097</v>
+        <v>765.44444444444434</v>
       </c>
       <c r="N28" s="2">
         <f t="shared" si="9"/>
-        <v>564.97633136094657</v>
+        <v>613.51479289940812</v>
       </c>
       <c r="O28" s="2">
         <f t="shared" si="10"/>
-        <v>564.97633136094657</v>
+        <v>613.51479289940812</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" si="11"/>
-        <v>471.51020408163271</v>
+        <v>545.55612244897941</v>
       </c>
       <c r="W28" s="1" t="s">
         <v>1</v>
@@ -5030,66 +5033,66 @@
     <row r="29" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C29" s="1">
         <f t="shared" si="12"/>
-        <v>821.7777777777776</v>
+        <v>697.8402777777776</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="13"/>
-        <v>977.98347107438019</v>
+        <v>830.48760330578523</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" ref="E29:E39" si="14">($C9-$G$8)^2</f>
-        <v>1183.3600000000004</v>
+        <v>1004.8900000000002</v>
       </c>
       <c r="F29" s="2">
         <f>($C9-$F$9)^2</f>
-        <v>31.360000000000017</v>
+        <v>4</v>
       </c>
       <c r="G29" s="2">
         <f>($C9-$F$10)^2</f>
-        <v>250.69444444444451</v>
+        <v>210.25</v>
       </c>
       <c r="H29" s="2">
         <f t="shared" si="3"/>
-        <v>548.89795918367361</v>
+        <v>279.36734693877554</v>
       </c>
       <c r="I29" s="2">
         <f t="shared" si="4"/>
-        <v>548.89795918367361</v>
+        <v>279.36734693877554</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="5"/>
-        <v>790.23456790123475</v>
+        <v>630.56790123456801</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="6"/>
-        <v>888.03999999999985</v>
+        <v>789.61000000000013</v>
       </c>
       <c r="L29" s="2">
         <f t="shared" si="7"/>
-        <v>949.76033057851248</v>
+        <v>910.9421487603305</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="8"/>
-        <v>751.67361111111097</v>
+        <v>765.44444444444434</v>
       </c>
       <c r="N29" s="2">
         <f t="shared" si="9"/>
-        <v>564.97633136094657</v>
+        <v>613.51479289940812</v>
       </c>
       <c r="O29" s="2">
         <f t="shared" si="10"/>
-        <v>564.97633136094657</v>
+        <v>613.51479289940812</v>
       </c>
       <c r="P29" s="2">
         <f t="shared" si="11"/>
-        <v>471.51020408163271</v>
+        <v>545.55612244897941</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>10</v>
       </c>
       <c r="W29" s="1">
         <f>HLOOKUP(MIN(C42:P42),B42:P43,2,FALSE)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X29" s="1">
         <v>0</v>
@@ -5098,63 +5101,63 @@
     <row r="30" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C30" s="1">
         <f t="shared" si="12"/>
-        <v>1547.1111111111113</v>
+        <v>697.8402777777776</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="13"/>
-        <v>1348.8925619834711</v>
+        <v>830.48760330578523</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="14"/>
-        <v>1128.9599999999996</v>
+        <v>1004.8900000000002</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" ref="F30:F39" si="15">($C10-$G$9)^2</f>
-        <v>1393.7777777777781</v>
+        <v>1240.6049382716049</v>
       </c>
       <c r="G30" s="2">
         <f>($C10-$F$10)^2</f>
-        <v>2721.3611111111109</v>
+        <v>210.25</v>
       </c>
       <c r="H30" s="2">
         <f t="shared" si="3"/>
-        <v>1986.612244897959</v>
+        <v>279.36734693877554</v>
       </c>
       <c r="I30" s="2">
         <f t="shared" si="4"/>
-        <v>1986.612244897959</v>
+        <v>279.36734693877554</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="5"/>
-        <v>1591.1234567901231</v>
+        <v>630.56790123456801</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="6"/>
-        <v>1459.2400000000002</v>
+        <v>789.61000000000013</v>
       </c>
       <c r="L30" s="2">
         <f t="shared" si="7"/>
-        <v>1382.4876033057849</v>
+        <v>910.9421487603305</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="8"/>
-        <v>1647.0069444444446</v>
+        <v>765.44444444444434</v>
       </c>
       <c r="N30" s="2">
         <f t="shared" si="9"/>
-        <v>1956.3609467455624</v>
+        <v>613.51479289940812</v>
       </c>
       <c r="O30" s="2">
         <f t="shared" si="10"/>
-        <v>1956.3609467455624</v>
+        <v>613.51479289940812</v>
       </c>
       <c r="P30" s="2">
         <f t="shared" si="11"/>
-        <v>2142.3673469387754</v>
+        <v>545.55612244897941</v>
       </c>
       <c r="W30" s="1">
         <f>$W$29</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X30" s="1">
         <v>100</v>
@@ -5163,117 +5166,117 @@
     <row r="31" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C31" s="1">
         <f t="shared" si="12"/>
-        <v>1469.4444444444446</v>
+        <v>2558.6736111111113</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="13"/>
-        <v>1276.4380165289256</v>
+        <v>2321.4876033057849</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="14"/>
-        <v>1062.7599999999995</v>
+        <v>2052.0899999999997</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="15"/>
-        <v>1320.1111111111113</v>
+        <v>1745.3827160493827</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" ref="G31:G39" si="16">($C11-$G$10)^2</f>
-        <v>1670.765625</v>
+        <v>2209</v>
       </c>
       <c r="H31" s="2">
         <f t="shared" si="3"/>
-        <v>1898.4693877551019</v>
+        <v>3634.3673469387754</v>
       </c>
       <c r="I31" s="2">
         <f t="shared" si="4"/>
-        <v>1898.4693877551019</v>
+        <v>3634.3673469387754</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="5"/>
-        <v>1512.3456790123455</v>
+        <v>2692.4567901234564</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" si="6"/>
-        <v>1383.8400000000001</v>
+        <v>2391.21</v>
       </c>
       <c r="L31" s="2">
         <f t="shared" si="7"/>
-        <v>1309.1239669421486</v>
+        <v>2191.9421487603308</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="8"/>
-        <v>1566.8402777777781</v>
+        <v>2433.7777777777778</v>
       </c>
       <c r="N31" s="2">
         <f t="shared" si="9"/>
-        <v>1868.8994082840238</v>
+        <v>2728.0532544378702</v>
       </c>
       <c r="O31" s="2">
         <f t="shared" si="10"/>
-        <v>1868.8994082840238</v>
+        <v>2728.0532544378702</v>
       </c>
       <c r="P31" s="2">
         <f t="shared" si="11"/>
-        <v>2050.795918367347</v>
+        <v>2877.5561224489797</v>
       </c>
     </row>
     <row r="32" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C32" s="1">
         <f t="shared" si="12"/>
-        <v>1626.7777777777781</v>
+        <v>12.840277777777795</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="13"/>
-        <v>1423.3471074380166</v>
+        <v>1.3966942148760284</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="14"/>
-        <v>1197.1599999999996</v>
+        <v>2.8900000000000095</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="15"/>
-        <v>1469.4444444444446</v>
+        <v>27.271604938271597</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="16"/>
-        <v>1838.265625</v>
+        <v>0</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" ref="H32:H39" si="17">($C12-$G$11)^2</f>
-        <v>2401</v>
+        <v>0</v>
       </c>
       <c r="I32" s="2">
         <f t="shared" si="4"/>
-        <v>2076.7551020408159</v>
+        <v>176.51020408163262</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="5"/>
-        <v>1671.9012345679009</v>
+        <v>23.901234567901202</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="6"/>
-        <v>1536.6400000000003</v>
+        <v>3.6099999999999945</v>
       </c>
       <c r="L32" s="2">
         <f t="shared" si="7"/>
-        <v>1457.8512396694214</v>
+        <v>3.3057851239668715E-2</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" si="8"/>
-        <v>1729.1736111111113</v>
+        <v>5.4444444444444553</v>
       </c>
       <c r="N32" s="2">
         <f t="shared" si="9"/>
-        <v>2045.8224852071007</v>
+        <v>27.36094674556216</v>
       </c>
       <c r="O32" s="2">
         <f t="shared" si="10"/>
-        <v>2045.8224852071007</v>
+        <v>27.36094674556216</v>
       </c>
       <c r="P32" s="2">
         <f t="shared" si="11"/>
-        <v>2235.9387755102039</v>
+        <v>44.127551020408205</v>
       </c>
       <c r="U32" s="1" t="s">
         <v>17</v>
@@ -5290,47 +5293,47 @@
       </c>
       <c r="Y32" s="1" t="str">
         <f>_xlfn.CONCAT(W32,":",W33)</f>
-        <v>C6:C9</v>
+        <v>C6:C10</v>
       </c>
       <c r="AA32" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AB32" s="1">
         <f>V33+1</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC32" s="1" t="str">
         <f>CONCATENATE("C",AB32)</f>
-        <v>C10</v>
+        <v>C11</v>
       </c>
       <c r="AD32" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AE32" s="1" t="str">
         <f>_xlfn.CONCAT(AC32,":",AC33)</f>
-        <v>C10:C19</v>
+        <v>C11:C19</v>
       </c>
     </row>
     <row r="33" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C33" s="1">
         <f t="shared" si="12"/>
-        <v>266.77777777777783</v>
+        <v>817.00694444444457</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="13"/>
-        <v>188.4380165289256</v>
+        <v>685.487603305785</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" si="14"/>
-        <v>112.35999999999989</v>
+        <v>542.88999999999987</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="15"/>
-        <v>205.44444444444451</v>
+        <v>391.16049382716051</v>
       </c>
       <c r="G33" s="1">
         <f t="shared" si="16"/>
-        <v>356.265625</v>
+        <v>625</v>
       </c>
       <c r="H33" s="1">
         <f t="shared" si="17"/>
@@ -5342,46 +5345,46 @@
       </c>
       <c r="J33" s="2">
         <f t="shared" si="5"/>
-        <v>285.23456790123447</v>
+        <v>893.3456790123455</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="6"/>
-        <v>231.04000000000008</v>
+        <v>723.6099999999999</v>
       </c>
       <c r="L33" s="2">
         <f t="shared" si="7"/>
-        <v>201.12396694214871</v>
+        <v>615.94214876033072</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="8"/>
-        <v>309.1736111111112</v>
+        <v>747.1111111111112</v>
       </c>
       <c r="N33" s="2">
         <f t="shared" si="9"/>
-        <v>450.74556213017763</v>
+        <v>913.89940828402382</v>
       </c>
       <c r="O33" s="2">
         <f t="shared" si="10"/>
-        <v>450.74556213017763</v>
+        <v>913.89940828402382</v>
       </c>
       <c r="P33" s="2">
         <f t="shared" si="11"/>
-        <v>542.22448979591832</v>
+        <v>1001.2704081632655</v>
       </c>
       <c r="V33" s="1">
         <f>$V$32+W29-1</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W33" s="1" t="str">
         <f>CONCATENATE("C",V33)</f>
-        <v>C9</v>
+        <v>C10</v>
       </c>
       <c r="X33" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Y33" s="1">
         <f ca="1">AVERAGE(INDIRECT(Y32))</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AB33" s="1">
         <f>COUNT(B6:B19)-W29+AB32-1</f>
@@ -5396,29 +5399,29 @@
       </c>
       <c r="AE33" s="1">
         <f ca="1">AVERAGE(INDIRECT(AE32))</f>
-        <v>64.400000000000006</v>
+        <v>55.222222222222221</v>
       </c>
     </row>
     <row r="34" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C34" s="1">
         <f t="shared" si="12"/>
-        <v>235.11111111111117</v>
+        <v>760.84027777777794</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="13"/>
-        <v>161.98347107438016</v>
+        <v>634.12396694214863</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" si="14"/>
-        <v>92.159999999999897</v>
+        <v>497.28999999999985</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="15"/>
-        <v>177.77777777777783</v>
+        <v>352.60493827160496</v>
       </c>
       <c r="G34" s="1">
         <f t="shared" si="16"/>
-        <v>319.515625</v>
+        <v>576</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" si="17"/>
@@ -5434,49 +5437,49 @@
       </c>
       <c r="K34" s="2">
         <f t="shared" si="6"/>
-        <v>201.64000000000007</v>
+        <v>670.81</v>
       </c>
       <c r="L34" s="2">
         <f t="shared" si="7"/>
-        <v>173.76033057851234</v>
+        <v>567.30578512396698</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="8"/>
-        <v>275.00694444444451</v>
+        <v>693.44444444444457</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" si="9"/>
-        <v>409.28402366863918</v>
+        <v>854.43786982248537</v>
       </c>
       <c r="O34" s="2">
         <f t="shared" si="10"/>
-        <v>409.28402366863918</v>
+        <v>854.43786982248537</v>
       </c>
       <c r="P34" s="2">
         <f t="shared" si="11"/>
-        <v>496.65306122448976</v>
+        <v>938.98469387755119</v>
       </c>
     </row>
     <row r="35" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C35" s="1">
         <f t="shared" si="12"/>
-        <v>266.77777777777783</v>
+        <v>817.00694444444457</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="13"/>
-        <v>188.4380165289256</v>
+        <v>685.487603305785</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="14"/>
-        <v>112.35999999999989</v>
+        <v>542.88999999999987</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="15"/>
-        <v>205.44444444444451</v>
+        <v>391.16049382716051</v>
       </c>
       <c r="G35" s="1">
         <f t="shared" si="16"/>
-        <v>356.265625</v>
+        <v>625</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" si="17"/>
@@ -5496,23 +5499,23 @@
       </c>
       <c r="L35" s="2">
         <f t="shared" si="7"/>
-        <v>201.12396694214871</v>
+        <v>615.94214876033072</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="8"/>
-        <v>309.1736111111112</v>
+        <v>747.1111111111112</v>
       </c>
       <c r="N35" s="2">
         <f t="shared" si="9"/>
-        <v>450.74556213017763</v>
+        <v>913.89940828402382</v>
       </c>
       <c r="O35" s="2">
         <f t="shared" si="10"/>
-        <v>450.74556213017763</v>
+        <v>913.89940828402382</v>
       </c>
       <c r="P35" s="2">
         <f t="shared" si="11"/>
-        <v>542.22448979591832</v>
+        <v>1001.2704081632655</v>
       </c>
       <c r="X35" s="1" t="s">
         <v>1</v>
@@ -5530,23 +5533,23 @@
     <row r="36" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C36" s="1">
         <f t="shared" si="12"/>
-        <v>152.11111111111117</v>
+        <v>604.34027777777794</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="13"/>
-        <v>94.619834710743788</v>
+        <v>492.03305785123956</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="14"/>
-        <v>43.559999999999924</v>
+        <v>372.4899999999999</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="15"/>
-        <v>106.77777777777783</v>
+        <v>248.93827160493831</v>
       </c>
       <c r="G36" s="1">
         <f t="shared" si="16"/>
-        <v>221.265625</v>
+        <v>441</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" si="17"/>
@@ -5570,56 +5573,56 @@
       </c>
       <c r="M36" s="2">
         <f t="shared" si="8"/>
-        <v>184.50694444444451</v>
+        <v>544.44444444444457</v>
       </c>
       <c r="N36" s="2">
         <f t="shared" si="9"/>
-        <v>296.89940828402376</v>
+        <v>688.05325443787001</v>
       </c>
       <c r="O36" s="2">
         <f t="shared" si="10"/>
-        <v>296.89940828402376</v>
+        <v>688.05325443787001</v>
       </c>
       <c r="P36" s="2">
         <f t="shared" si="11"/>
-        <v>371.93877551020404</v>
+        <v>764.1275510204083</v>
       </c>
       <c r="X36" s="1">
         <v>0</v>
       </c>
       <c r="Y36" s="1">
         <f ca="1">Y33</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AC36" s="1">
         <f>X37</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD36" s="1">
         <f ca="1">AE33</f>
-        <v>64.400000000000006</v>
+        <v>55.222222222222221</v>
       </c>
     </row>
     <row r="37" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C37" s="1">
         <f t="shared" si="12"/>
-        <v>1495.1111111111109</v>
+        <v>697.8402777777776</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="13"/>
-        <v>1703.4380165289256</v>
+        <v>830.48760330578523</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="14"/>
-        <v>1971.3600000000006</v>
+        <v>1004.8900000000002</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="15"/>
-        <v>1653.7777777777776</v>
+        <v>1240.6049382716049</v>
       </c>
       <c r="G37" s="1">
         <f t="shared" si="16"/>
-        <v>1305.015625</v>
+        <v>900</v>
       </c>
       <c r="H37" s="1">
         <f t="shared" si="17"/>
@@ -5647,23 +5650,23 @@
       </c>
       <c r="N37" s="2">
         <f t="shared" si="9"/>
-        <v>1140.3609467455619</v>
+        <v>613.51479289940812</v>
       </c>
       <c r="O37" s="2">
         <f t="shared" si="10"/>
-        <v>1140.3609467455619</v>
+        <v>613.51479289940812</v>
       </c>
       <c r="P37" s="2">
         <f t="shared" si="11"/>
-        <v>1005.795918367347</v>
+        <v>545.55612244897941</v>
       </c>
       <c r="X37" s="1">
         <f>W29</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y37" s="1">
         <f ca="1">Y33</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AC37" s="1">
         <f>B19</f>
@@ -5671,29 +5674,29 @@
       </c>
       <c r="AD37" s="1">
         <f ca="1">AE33</f>
-        <v>64.400000000000006</v>
+        <v>55.222222222222221</v>
       </c>
     </row>
     <row r="38" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C38" s="1">
         <f t="shared" si="12"/>
-        <v>2368.4444444444443</v>
+        <v>1326.1736111111109</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="13"/>
-        <v>2628.8925619834713</v>
+        <v>1506.8512396694216</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="14"/>
-        <v>2959.3600000000006</v>
+        <v>1738.8900000000003</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="15"/>
-        <v>2567.1111111111109</v>
+        <v>2045.0493827160494</v>
       </c>
       <c r="G38" s="1">
         <f t="shared" si="16"/>
-        <v>2127.515625</v>
+        <v>1600</v>
       </c>
       <c r="H38" s="1">
         <f t="shared" si="17"/>
@@ -5725,33 +5728,33 @@
       </c>
       <c r="O38" s="2">
         <f t="shared" si="10"/>
-        <v>1915.7455621301772</v>
+        <v>1208.8994082840234</v>
       </c>
       <c r="P38" s="2">
         <f t="shared" si="11"/>
-        <v>1740.0816326530612</v>
+        <v>1112.6989795918366</v>
       </c>
     </row>
     <row r="39" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C39" s="1">
         <f t="shared" si="12"/>
-        <v>1133.4444444444443</v>
+        <v>458.67361111111103</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="13"/>
-        <v>1315.7107438016531</v>
+        <v>567.30578512396698</v>
       </c>
       <c r="E39" s="1">
         <f t="shared" si="14"/>
-        <v>1552.3600000000004</v>
+        <v>712.8900000000001</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="15"/>
-        <v>1272.1111111111109</v>
+        <v>913.38271604938268</v>
       </c>
       <c r="G39" s="1">
         <f t="shared" si="16"/>
-        <v>968.765625</v>
+        <v>625</v>
       </c>
       <c r="H39" s="1">
         <f t="shared" si="17"/>
@@ -5787,11 +5790,11 @@
       </c>
       <c r="P39" s="2">
         <f t="shared" si="11"/>
-        <v>713.65306122448987</v>
+        <v>336.98469387755091</v>
       </c>
     </row>
     <row r="41" spans="2:31" ht="19.7" x14ac:dyDescent="0.35">
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="3"/>
@@ -5814,59 +5817,59 @@
       </c>
       <c r="C42" s="1">
         <f>SUM(C26:C39)/COUNT(C26:C39)</f>
-        <v>1040.9365079365077</v>
+        <v>776.41121031746025</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" ref="D42:P42" si="20">SUM(D26:D39)/COUNT(D26:D39)</f>
-        <v>877.58323494687136</v>
+        <v>733.29456906729627</v>
       </c>
       <c r="E42" s="1">
         <f t="shared" si="20"/>
-        <v>861.64952380952388</v>
+        <v>774.59452380952382</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="20"/>
-        <v>838.94412698412714</v>
+        <v>619.44003527336849</v>
       </c>
       <c r="G42" s="1">
         <f t="shared" si="20"/>
-        <v>1068.1747271825395</v>
+        <v>604.44642857142856</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" si="20"/>
-        <v>1181.997084548105</v>
+        <v>727.77988338192415</v>
       </c>
       <c r="I42" s="1">
         <f t="shared" si="20"/>
-        <v>1167.5172902494328</v>
+        <v>749.06831065759627</v>
       </c>
       <c r="J42" s="1">
         <f t="shared" si="20"/>
-        <v>1151.690864197531</v>
+        <v>800.96864197530874</v>
       </c>
       <c r="K42" s="1">
         <f t="shared" si="20"/>
-        <v>1116.9864285714286</v>
+        <v>811.75285714285712</v>
       </c>
       <c r="L42" s="1">
         <f t="shared" si="20"/>
-        <v>1048.6008133280861</v>
+        <v>780.90600813328092</v>
       </c>
       <c r="M42" s="1">
         <f t="shared" si="20"/>
-        <v>867.11855158730179</v>
+        <v>618.85515873015879</v>
       </c>
       <c r="N42" s="1">
         <f t="shared" si="20"/>
-        <v>986.11158072696549</v>
+        <v>688.31487743026207</v>
       </c>
       <c r="O42" s="1">
         <f t="shared" si="20"/>
-        <v>1106.879120879121</v>
+        <v>758.59340659340671</v>
       </c>
       <c r="P42" s="1">
         <f t="shared" si="20"/>
-        <v>1161.7755102040815</v>
+        <v>784.51530612244903</v>
       </c>
     </row>
     <row r="43" spans="2:31" x14ac:dyDescent="0.25">
@@ -7324,8 +7327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D84A23-05C1-4943-AC74-424844BD79C9}">
   <dimension ref="A1:AC92"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V35" sqref="V35"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -7391,7 +7394,7 @@
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <f t="shared" ref="B6:B19" ca="1" si="0">RANDBETWEEN(1,20)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1">
         <v>10</v>
@@ -7411,7 +7414,7 @@
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
         <v>10</v>
@@ -7432,7 +7435,7 @@
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1">
         <v>30</v>
@@ -7453,7 +7456,7 @@
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1">
         <v>30</v>
@@ -7474,7 +7477,7 @@
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1">
         <v>98</v>
@@ -7495,7 +7498,7 @@
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1">
         <v>97</v>
@@ -7537,7 +7540,7 @@
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1">
         <v>75</v>
@@ -7558,7 +7561,7 @@
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C14" s="1">
         <v>74</v>
@@ -7579,7 +7582,7 @@
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1">
         <v>75</v>
@@ -7600,7 +7603,7 @@
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1">
         <v>71</v>
@@ -7621,7 +7624,7 @@
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1">
         <v>20</v>
@@ -7642,7 +7645,7 @@
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1">
         <v>10</v>
@@ -7663,7 +7666,7 @@
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
@@ -8653,27 +8656,27 @@
       </c>
       <c r="C43" s="1">
         <f t="array" aca="1" ref="C43:P43" ca="1">TRANSPOSE(B6:B19)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D43" s="1">
         <f ca="1"/>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E43" s="1">
         <f ca="1"/>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F43" s="1">
         <f ca="1"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G43" s="1">
         <f ca="1"/>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H43" s="1">
         <f ca="1"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I43" s="1">
         <f ca="1"/>
@@ -8681,31 +8684,31 @@
       </c>
       <c r="J43" s="1">
         <f ca="1"/>
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="K43" s="1">
         <f ca="1"/>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L43" s="1">
         <f ca="1"/>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M43" s="1">
         <f ca="1"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N43" s="1">
         <f ca="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O43" s="1">
         <f ca="1"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P43" s="1">
         <f ca="1"/>
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
@@ -8722,7 +8725,7 @@
       </c>
       <c r="H46" s="1">
         <f ca="1">HLOOKUP(MIN(C42:P42),B42:P43,2,FALSE)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I46" s="1">
         <v>0</v>
@@ -8731,7 +8734,7 @@
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="H47" s="1">
         <f ca="1">$H$46</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I47" s="1">
         <v>100</v>

--- a/DecisionTree/DecisionTreeRegressor/MSE.xlsx
+++ b/DecisionTree/DecisionTreeRegressor/MSE.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GD\DS\DS_Share\Github\DecisionTree\DecisionTreeRegressor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494B25BA-9268-4BD8-9B60-7BA74ACFA58E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F4F6F2-0B0E-4FE7-BFC0-4151597A2DFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Split_X1" sheetId="1" r:id="rId1"/>
     <sheet name="Split_X2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="21">
   <si>
     <t>y</t>
   </si>
@@ -67,9 +67,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>X1</t>
-  </si>
-  <si>
     <t>X2</t>
   </si>
   <si>
@@ -84,12 +81,21 @@
   <si>
     <t>Dir</t>
   </si>
+  <si>
+    <t>Horizontal line</t>
+  </si>
+  <si>
+    <t>VALORES DE X</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +106,14 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -120,7 +134,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -128,11 +142,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -145,6 +239,66 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -178,6 +332,45 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Soma do erro quadrático (Mean Squared Error - MSE)</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -190,13 +383,10 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -211,6 +401,75 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Menor valor de MSE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Split_X1!$L$29:$L$30</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Split_X1!$M$29:$M$30</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>407.30029154518951</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>407.30029154518951</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-26A2-472F-9795-73144444980F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1561200111"/>
+        <c:axId val="1657884559"/>
+      </c:scatterChart>
+      <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -218,7 +477,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Split_X1!$B$42</c:f>
+              <c:f>Split_X1!$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -251,7 +510,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Split_X1!$C$43:$P$43</c:f>
+              <c:f>Split_X1!$B$24:$O$24</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="14"/>
@@ -302,51 +561,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Split_X1!$C$42:$P$42</c:f>
+              <c:f>Split_X1!$B$23:$O$23</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>776.41121031746025</c:v>
+                  <c:v>619.7162698412701</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>733.29456906729627</c:v>
+                  <c:v>597.86422668240846</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>774.59452380952382</c:v>
+                  <c:v>664.16666666666663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>619.44003527336849</c:v>
+                  <c:v>538.80776014109347</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>604.44642857142856</c:v>
+                  <c:v>506.57142857142856</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>727.77988338192415</c:v>
+                  <c:v>407.30029154518951</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>749.06831065759627</c:v>
+                  <c:v>463.21116780045355</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800.96864197530874</c:v>
+                  <c:v>590.06652557319217</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>811.75285714285712</c:v>
+                  <c:v>651.73500000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>780.90600813328092</c:v>
+                  <c:v>662.52643316279705</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>618.85515873015879</c:v>
+                  <c:v>526.20188492063494</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>688.31487743026207</c:v>
+                  <c:v>568.25781910397302</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>758.59340659340671</c:v>
+                  <c:v>608.49450549450557</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>784.51530612244903</c:v>
+                  <c:v>619.83673469387759</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -376,6 +635,55 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Valores de X</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -398,12 +706,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -424,6 +729,60 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Valor</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> de MSE</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -446,12 +805,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -473,6 +829,34 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -504,7 +888,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="pt-BR"/>
     </a:p>
@@ -531,6 +919,52 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -646,7 +1080,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>97</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>50</c:v>
@@ -712,26 +1146,38 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Split_X1!$W$29:$W$30</c:f>
+              <c:f>Split_X1!$F$29:$F$30</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Split_X1!$X$29:$X$30</c:f>
+              <c:f>Split_X1!$G$29:$G$30</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
@@ -739,7 +1185,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -767,11 +1213,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Split_X1!$X$36:$X$37</c:f>
+              <c:f>Split_X1!$G$36:$G$37</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
@@ -779,22 +1237,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Split_X1!$Y$36:$Y$37</c:f>
+              <c:f>Split_X1!$H$36:$H$37</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -822,16 +1280,28 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Split_X1!$AC$36:$AC$37</c:f>
+              <c:f>Split_X1!$L$36:$L$37</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>14</c:v>
@@ -841,15 +1311,15 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Split_X1!$AD$36:$AD$37</c:f>
+              <c:f>Split_X1!$M$36:$M$37</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>55.222222222222221</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.222222222222221</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -879,6 +1349,55 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Valores de X</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -901,12 +1420,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -927,6 +1443,60 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Valores</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> de Y</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -949,12 +1519,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -976,6 +1543,34 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1007,7 +1602,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="pt-BR"/>
     </a:p>
@@ -1017,6 +1616,7 @@
     <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1035,6 +1635,28 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Soma do erro quadrático (Mean Squared Error - MSE)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1048,12 +1670,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1116,43 +1735,43 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1164,46 +1783,46 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1165.9305555555557</c:v>
+                  <c:v>1119.2326388888889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1014.362455726092</c:v>
+                  <c:v>963.96162927981118</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1006.1266666666668</c:v>
+                  <c:v>953.33166666666671</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>995.23336860670202</c:v>
+                  <c:v>938.74571428571437</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1212.8443700396824</c:v>
+                  <c:v>1160.1334325396824</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1312.9067055393589</c:v>
+                  <c:v>1264.6720116618076</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1278.0410997732426</c:v>
+                  <c:v>1236.4160997732426</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1249.7480070546737</c:v>
+                  <c:v>1212.2480070546737</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1199.6828571428573</c:v>
+                  <c:v>1167.2766071428573</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1109.7119244391972</c:v>
+                  <c:v>1084.4341466614194</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>873.40426587301602</c:v>
+                  <c:v>865.77926587301602</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>973.54015215553693</c:v>
+                  <c:v>970.04015215553693</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1106.879120879121</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1277.8367346938778</c:v>
+                  <c:v>1233.9438775510207</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1226,6 +1845,75 @@
         <c:axId val="1561200111"/>
         <c:axId val="1657884559"/>
       </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Vaalor Mínimo</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Split_X2!$V$34:$V$35</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Split_X2!$W$34:$W$35</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>865.77926587301602</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>865.77926587301602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-697C-4E4F-910D-BF756995E4D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1561200111"/>
+        <c:axId val="1657884559"/>
+      </c:scatterChart>
       <c:valAx>
         <c:axId val="1561200111"/>
         <c:scaling>
@@ -1233,6 +1921,55 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Valor de X</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1255,12 +1992,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1281,6 +2015,55 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Valor do MSE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1303,12 +2086,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1330,6 +2110,34 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1361,7 +2169,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="pt-BR"/>
     </a:p>
@@ -1388,6 +2200,55 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Valores de Y x Valores de X</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1440,43 +2301,43 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1527,7 +2388,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1543,7 +2404,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Divisão</c:v>
+            <c:v>Split</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1564,10 +2425,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1612,6 +2473,55 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Valor de X</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1636,10 +2546,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1660,6 +2567,55 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Valor de Y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1684,10 +2640,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1709,6 +2662,34 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1740,7 +2721,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="pt-BR"/>
     </a:p>
@@ -3981,16 +4966,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>185467</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>64698</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>12941</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>84996</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>99203</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>90578</xdr:rowOff>
+      <xdr:colOff>202975</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>20298</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4017,16 +5002,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>116456</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>472170</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152232</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>491705</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>73324</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>142082</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>71041</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4055,19 +5040,63 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.26343</cdr:x>
+      <cdr:y>0.02634</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.71372</cdr:x>
+      <cdr:y>0.16875</cdr:y>
+    </cdr:to>
+    <cdr:pic>
+      <cdr:nvPicPr>
+        <cdr:cNvPr id="2" name="chart">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F1E6898-7231-4C49-9F45-7DC5C874B2C9}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvPicPr>
+      </cdr:nvPicPr>
+      <cdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </cdr:blipFill>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1248293" y="71041"/>
+          <a:ext cx="2133785" cy="384081"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+    </cdr:pic>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>185467</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>64698</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>276805</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>13956</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>99203</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>90578</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>101488</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>91338</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4096,16 +5125,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>248898</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>116456</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>491705</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>73324</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>116203</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2283</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4398,27 +5427,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE92"/>
+  <dimension ref="A1:AC92"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.5" style="1" customWidth="1"/>
-    <col min="18" max="20" width="9" style="1"/>
-    <col min="21" max="21" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
+    <col min="2" max="5" width="7.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="7.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="21" width="7.25" style="1" customWidth="1"/>
     <col min="22" max="22" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="4.375" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
@@ -4468,7 +5491,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
@@ -4499,7 +5522,7 @@
       </c>
       <c r="G6" s="1">
         <f>AVERAGE(C8:$C$19)</f>
-        <v>46.416666666666664</v>
+        <v>39.166666666666664</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -4520,7 +5543,7 @@
       </c>
       <c r="G7" s="1">
         <f>AVERAGE(C9:$C$19)</f>
-        <v>48.81818181818182</v>
+        <v>40.909090909090907</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -4541,7 +5564,7 @@
       </c>
       <c r="G8" s="1">
         <f>AVERAGE(C10:$C$19)</f>
-        <v>51.7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -4562,7 +5585,7 @@
       </c>
       <c r="G9" s="1">
         <f>AVERAGE(C11:$C$19)</f>
-        <v>55.222222222222221</v>
+        <v>45.555555555555557</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -4579,7 +5602,7 @@
       </c>
       <c r="F10" s="1">
         <f>AVERAGE($C$6:C11)</f>
-        <v>34.5</v>
+        <v>20</v>
       </c>
       <c r="G10" s="1">
         <f>AVERAGE(C12:$C$19)</f>
@@ -4592,7 +5615,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="1">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
@@ -4600,7 +5623,7 @@
       </c>
       <c r="F11" s="1">
         <f>AVERAGE($C$6:C12)</f>
-        <v>36.714285714285715</v>
+        <v>24.285714285714285</v>
       </c>
       <c r="G11" s="1">
         <f>AVERAGE(C13:$C$19)</f>
@@ -4621,7 +5644,7 @@
       </c>
       <c r="F12" s="1">
         <f>AVERAGE($C$6:C12)</f>
-        <v>36.714285714285715</v>
+        <v>24.285714285714285</v>
       </c>
       <c r="G12" s="1">
         <f>AVERAGE(C14:$C$19)</f>
@@ -4642,7 +5665,7 @@
       </c>
       <c r="F13" s="1">
         <f>AVERAGE($C$6:C14)</f>
-        <v>45.111111111111114</v>
+        <v>35.444444444444443</v>
       </c>
       <c r="G13" s="1">
         <f>AVERAGE(C15:$C$19)</f>
@@ -4663,7 +5686,7 @@
       </c>
       <c r="F14" s="1">
         <f>AVERAGE($C$6:C15)</f>
-        <v>48.1</v>
+        <v>39.4</v>
       </c>
       <c r="G14" s="1">
         <f>AVERAGE(C16:$C$19)</f>
@@ -4684,7 +5707,7 @@
       </c>
       <c r="F15" s="1">
         <f>AVERAGE($C$6:C16)</f>
-        <v>50.18181818181818</v>
+        <v>42.272727272727273</v>
       </c>
       <c r="G15" s="1">
         <f>AVERAGE(C17:$C$19)</f>
@@ -4705,14 +5728,14 @@
       </c>
       <c r="F16" s="1">
         <f>AVERAGE($C$6:C17)</f>
-        <v>47.666666666666664</v>
+        <v>40.416666666666664</v>
       </c>
       <c r="G16" s="1">
         <f>AVERAGE(C18:$C$19)</f>
         <v>17.5</v>
       </c>
     </row>
-    <row r="17" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -4726,14 +5749,14 @@
       </c>
       <c r="F17" s="1">
         <f>AVERAGE($C$6:C18)</f>
-        <v>44.769230769230766</v>
+        <v>38.07692307692308</v>
       </c>
       <c r="G17" s="1">
         <f>AVERAGE(C19:$C$19)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -4747,14 +5770,14 @@
       </c>
       <c r="F18" s="1">
         <f>AVERAGE($C$6:C18)</f>
-        <v>44.769230769230766</v>
+        <v>38.07692307692308</v>
       </c>
       <c r="G18" s="1">
         <f>AVERAGE(C$19:$C20)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -4768,1178 +5791,827 @@
       </c>
       <c r="F19" s="1">
         <f>AVERAGE($C$6:C19)</f>
-        <v>43.357142857142854</v>
+        <v>37.142857142857146</v>
       </c>
       <c r="G19" s="1">
         <f>AVERAGE(C$19:$C21)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="C24" s="1">
+    <row r="22" spans="1:18" ht="19.7" x14ac:dyDescent="0.35">
+      <c r="A22" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="16"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="17">
+        <f>SUM(B44:B57)/COUNT(B44:B57)</f>
+        <v>619.7162698412701</v>
+      </c>
+      <c r="C23" s="17">
+        <f>SUM(C44:C57)/COUNT(C44:C57)</f>
+        <v>597.86422668240846</v>
+      </c>
+      <c r="D23" s="17">
+        <f>SUM(D44:D57)/COUNT(D44:D57)</f>
+        <v>664.16666666666663</v>
+      </c>
+      <c r="E23" s="17">
+        <f>SUM(E44:E57)/COUNT(E44:E57)</f>
+        <v>538.80776014109347</v>
+      </c>
+      <c r="F23" s="17">
+        <f>SUM(F44:F57)/COUNT(F44:F57)</f>
+        <v>506.57142857142856</v>
+      </c>
+      <c r="G23" s="17">
+        <f>SUM(G44:G57)/COUNT(G44:G57)</f>
+        <v>407.30029154518951</v>
+      </c>
+      <c r="H23" s="17">
+        <f>SUM(H44:H57)/COUNT(H44:H57)</f>
+        <v>463.21116780045355</v>
+      </c>
+      <c r="I23" s="17">
+        <f>SUM(I44:I57)/COUNT(I44:I57)</f>
+        <v>590.06652557319217</v>
+      </c>
+      <c r="J23" s="17">
+        <f>SUM(J44:J57)/COUNT(J44:J57)</f>
+        <v>651.73500000000001</v>
+      </c>
+      <c r="K23" s="17">
+        <f>SUM(K44:K57)/COUNT(K44:K57)</f>
+        <v>662.52643316279705</v>
+      </c>
+      <c r="L23" s="17">
+        <f>SUM(L44:L57)/COUNT(L44:L57)</f>
+        <v>526.20188492063494</v>
+      </c>
+      <c r="M23" s="17">
+        <f>SUM(M44:M57)/COUNT(M44:M57)</f>
+        <v>568.25781910397302</v>
+      </c>
+      <c r="N23" s="17">
+        <f>SUM(N44:N57)/COUNT(N44:N57)</f>
+        <v>608.49450549450557</v>
+      </c>
+      <c r="O23" s="17">
+        <f>SUM(O44:O57)/COUNT(O44:O57)</f>
+        <v>619.83673469387759</v>
+      </c>
+      <c r="P23" s="7"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="19">
+        <f t="array" ref="B24:O24">TRANSPOSE(B6:B19)</f>
         <v>1</v>
       </c>
-      <c r="D24" s="1">
-        <f t="shared" ref="D24:P24" si="2">C24+1</f>
+      <c r="C24" s="19">
         <v>2</v>
       </c>
-      <c r="E24" s="1">
+      <c r="D24" s="19">
+        <v>3</v>
+      </c>
+      <c r="E24" s="19">
+        <v>4</v>
+      </c>
+      <c r="F24" s="19">
+        <v>5</v>
+      </c>
+      <c r="G24" s="19">
+        <v>6</v>
+      </c>
+      <c r="H24" s="19">
+        <v>7</v>
+      </c>
+      <c r="I24" s="19">
+        <v>8</v>
+      </c>
+      <c r="J24" s="19">
+        <v>9</v>
+      </c>
+      <c r="K24" s="19">
+        <v>10</v>
+      </c>
+      <c r="L24" s="19">
+        <v>11</v>
+      </c>
+      <c r="M24" s="19">
+        <v>12</v>
+      </c>
+      <c r="N24" s="19">
+        <v>13</v>
+      </c>
+      <c r="O24" s="19">
+        <v>14</v>
+      </c>
+      <c r="P24" s="9"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F27" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="11"/>
+      <c r="L27" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" s="11"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F28" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F29" s="6">
+        <f>HLOOKUP(MIN(B23:O23),A23:O24,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0</v>
+      </c>
+      <c r="L29" s="6">
+        <f>E6</f>
+        <v>1</v>
+      </c>
+      <c r="M29" s="7">
+        <f>MIN($B$23:$O$23)</f>
+        <v>407.30029154518951</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="F30" s="8">
+        <f>$F$29</f>
+        <v>6</v>
+      </c>
+      <c r="G30" s="9">
+        <f>MAX(C6:C19)</f>
+        <v>75</v>
+      </c>
+      <c r="L30" s="8">
+        <f>E19</f>
+        <v>14</v>
+      </c>
+      <c r="M30" s="9">
+        <f>MIN($B$23:$O$23)</f>
+        <v>407.30029154518951</v>
+      </c>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="D32" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="21">
+        <f>F29</f>
+        <v>6</v>
+      </c>
+      <c r="F32" s="21" t="str">
+        <f>CONCATENATE("C",E32)</f>
+        <v>C6</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="16" t="str">
+        <f>CONCATENATE(F32,":",F33)</f>
+        <v>C6:C11</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="21">
+        <f>E33+1</f>
+        <v>12</v>
+      </c>
+      <c r="L32" s="21" t="str">
+        <f>CONCATENATE("C",K32)</f>
+        <v>C12</v>
+      </c>
+      <c r="M32" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="N32" s="16" t="str">
+        <f>CONCATENATE(L32,":",L33)</f>
+        <v>C12:C19</v>
+      </c>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="17">
+        <f>$E$32+F29-1</f>
+        <v>11</v>
+      </c>
+      <c r="F33" s="17" t="str">
+        <f>CONCATENATE("C",E33)</f>
+        <v>C11</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" s="7">
+        <f ca="1">AVERAGE(INDIRECT(H32))</f>
+        <v>20</v>
+      </c>
+      <c r="J33" s="6"/>
+      <c r="K33" s="17">
+        <f>COUNT(B6:B19)-F29+K32-1</f>
+        <v>19</v>
+      </c>
+      <c r="L33" s="17" t="str">
+        <f>CONCATENATE("C",K33)</f>
+        <v>C19</v>
+      </c>
+      <c r="M33" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="7">
+        <f ca="1">AVERAGE(INDIRECT(N32))</f>
+        <v>50</v>
+      </c>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="7"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="7"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J35" s="6"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="M35" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="N35" s="7"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17">
+        <v>0</v>
+      </c>
+      <c r="H36" s="7">
+        <f ca="1">H33</f>
+        <v>20</v>
+      </c>
+      <c r="J36" s="6"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17">
+        <f>G37</f>
+        <v>6</v>
+      </c>
+      <c r="M36" s="17">
+        <f ca="1">N33</f>
+        <v>50</v>
+      </c>
+      <c r="N36" s="7"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19">
+        <f>F29</f>
+        <v>6</v>
+      </c>
+      <c r="H37" s="9">
+        <f ca="1">H33</f>
+        <v>20</v>
+      </c>
+      <c r="J37" s="8"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19">
+        <f>B19</f>
+        <v>14</v>
+      </c>
+      <c r="M37" s="19">
+        <f ca="1">N33</f>
+        <v>50</v>
+      </c>
+      <c r="N37" s="9"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" ref="C42:O42" si="2">B42+1</f>
+        <v>2</v>
+      </c>
+      <c r="D42" s="1">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="F24" s="1">
+      <c r="E42" s="1">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="G24" s="1">
+      <c r="F42" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="H24" s="1">
+      <c r="G42" s="1">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="I24" s="1">
+      <c r="H42" s="1">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="J24" s="1">
+      <c r="I42" s="1">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="K24" s="1">
+      <c r="J42" s="1">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="L24" s="1">
+      <c r="K42" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="M24" s="1">
+      <c r="L42" s="1">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="N24" s="1">
+      <c r="M42" s="1">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="O24" s="1">
+      <c r="N42" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="P24" s="1">
+      <c r="O42" s="1">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="2:31" ht="19.7" x14ac:dyDescent="0.35">
-      <c r="C25" s="3" t="s">
+    <row r="43" spans="1:18" ht="19.7" x14ac:dyDescent="0.35">
+      <c r="B43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="C26" s="2">
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B44" s="2">
         <f>(C6-$F$6)^2</f>
         <v>25</v>
       </c>
-      <c r="D26" s="2">
+      <c r="C44" s="2">
         <f>(C6-$F$7)^2</f>
         <v>25</v>
       </c>
-      <c r="E26" s="2">
+      <c r="D44" s="2">
         <f>(E6-$F$8)^2</f>
         <v>498.77777777777771</v>
       </c>
-      <c r="F26" s="2">
+      <c r="E44" s="2">
         <f>($C6-$F$9)^2</f>
         <v>64</v>
       </c>
-      <c r="G26" s="2">
+      <c r="F44" s="2">
         <f>($C6-$F$10)^2</f>
-        <v>20.25</v>
-      </c>
-      <c r="H26" s="2">
-        <f t="shared" ref="H26:H31" si="3">($C6-$F$11)^2</f>
-        <v>45.081632653061241</v>
-      </c>
-      <c r="I26" s="2">
-        <f t="shared" ref="I26:I32" si="4">($C6-$F$12)^2</f>
-        <v>45.081632653061241</v>
-      </c>
-      <c r="J26" s="2">
-        <f t="shared" ref="J26:J33" si="5">($C6-$F$13)^2</f>
-        <v>228.34567901234578</v>
-      </c>
-      <c r="K26" s="2">
-        <f t="shared" ref="K26:K34" si="6">($C6-$F$14)^2</f>
-        <v>327.61000000000007</v>
-      </c>
-      <c r="L26" s="2">
-        <f t="shared" ref="L26:L35" si="7">($C6-$F$15)^2</f>
-        <v>407.30578512396687</v>
-      </c>
-      <c r="M26" s="2">
-        <f t="shared" ref="M26:M36" si="8">($C6-$F$16)^2</f>
-        <v>312.11111111111103</v>
-      </c>
-      <c r="N26" s="2">
-        <f t="shared" ref="N26:N37" si="9">($C6-$F$17)^2</f>
-        <v>218.13017751479282</v>
-      </c>
-      <c r="O26" s="2">
-        <f t="shared" ref="O26:O38" si="10">($C6-$F$18)^2</f>
-        <v>218.13017751479282</v>
-      </c>
-      <c r="P26" s="2">
-        <f t="shared" ref="P26:P39" si="11">($C6-$F$19)^2</f>
-        <v>178.41326530612236</v>
-      </c>
-    </row>
-    <row r="27" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="C27" s="1">
-        <f t="shared" ref="C27:C39" si="12">(C7-$G$6)^2</f>
-        <v>697.8402777777776</v>
-      </c>
-      <c r="D27" s="2">
+        <v>100</v>
+      </c>
+      <c r="G44" s="2">
+        <f>($C6-$F$11)^2</f>
+        <v>32.653061224489811</v>
+      </c>
+      <c r="H44" s="2">
+        <f>($C6-$F$12)^2</f>
+        <v>32.653061224489811</v>
+      </c>
+      <c r="I44" s="2">
+        <f>($C6-$F$13)^2</f>
+        <v>29.641975308641957</v>
+      </c>
+      <c r="J44" s="2">
+        <f>($C6-$F$14)^2</f>
+        <v>88.359999999999971</v>
+      </c>
+      <c r="K44" s="2">
+        <f>($C6-$F$15)^2</f>
+        <v>150.61983471074382</v>
+      </c>
+      <c r="L44" s="2">
+        <f>($C6-$F$16)^2</f>
+        <v>108.5069444444444</v>
+      </c>
+      <c r="M44" s="2">
+        <f>($C6-$F$17)^2</f>
+        <v>65.236686390532597</v>
+      </c>
+      <c r="N44" s="2">
+        <f>($C6-$F$18)^2</f>
+        <v>65.236686390532597</v>
+      </c>
+      <c r="O44" s="2">
+        <f>($C6-$F$19)^2</f>
+        <v>51.020408163265351</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B45" s="1">
+        <f>(C7-$G$6)^2</f>
+        <v>367.36111111111103</v>
+      </c>
+      <c r="C45" s="2">
         <f>(C7-$F$7)^2</f>
         <v>25</v>
       </c>
-      <c r="E27" s="2">
+      <c r="D45" s="2">
         <f>(E7-$F$8)^2</f>
         <v>455.11111111111109</v>
       </c>
-      <c r="F27" s="2">
+      <c r="E45" s="2">
         <f>($C7-$F$9)^2</f>
         <v>4</v>
       </c>
-      <c r="G27" s="2">
+      <c r="F45" s="2">
         <f>($C7-$F$10)^2</f>
-        <v>210.25</v>
-      </c>
-      <c r="H27" s="2">
-        <f t="shared" si="3"/>
-        <v>279.36734693877554</v>
-      </c>
-      <c r="I27" s="2">
-        <f t="shared" si="4"/>
-        <v>279.36734693877554</v>
-      </c>
-      <c r="J27" s="2">
-        <f t="shared" si="5"/>
-        <v>630.56790123456801</v>
-      </c>
-      <c r="K27" s="2">
-        <f t="shared" si="6"/>
-        <v>789.61000000000013</v>
-      </c>
-      <c r="L27" s="2">
-        <f t="shared" si="7"/>
-        <v>910.9421487603305</v>
-      </c>
-      <c r="M27" s="2">
-        <f t="shared" si="8"/>
-        <v>765.44444444444434</v>
-      </c>
-      <c r="N27" s="2">
-        <f t="shared" si="9"/>
-        <v>613.51479289940812</v>
-      </c>
-      <c r="O27" s="2">
-        <f t="shared" si="10"/>
-        <v>613.51479289940812</v>
-      </c>
-      <c r="P27" s="2">
-        <f t="shared" si="11"/>
-        <v>545.55612244897941</v>
-      </c>
-    </row>
-    <row r="28" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="C28" s="1">
-        <f t="shared" si="12"/>
-        <v>697.8402777777776</v>
-      </c>
-      <c r="D28" s="1">
-        <f t="shared" ref="D28:D39" si="13">(C8-$G$7)^2</f>
-        <v>830.48760330578523</v>
-      </c>
-      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2">
+        <f>($C7-$F$11)^2</f>
+        <v>18.367346938775501</v>
+      </c>
+      <c r="H45" s="2">
+        <f>($C7-$F$12)^2</f>
+        <v>18.367346938775501</v>
+      </c>
+      <c r="I45" s="2">
+        <f>($C7-$F$13)^2</f>
+        <v>238.5308641975308</v>
+      </c>
+      <c r="J45" s="2">
+        <f>($C7-$F$14)^2</f>
+        <v>376.35999999999996</v>
+      </c>
+      <c r="K45" s="2">
+        <f>($C7-$F$15)^2</f>
+        <v>496.07438016528931</v>
+      </c>
+      <c r="L45" s="2">
+        <f>($C7-$F$16)^2</f>
+        <v>416.84027777777766</v>
+      </c>
+      <c r="M45" s="2">
+        <f>($C7-$F$17)^2</f>
+        <v>326.77514792899422</v>
+      </c>
+      <c r="N45" s="2">
+        <f>($C7-$F$18)^2</f>
+        <v>326.77514792899422</v>
+      </c>
+      <c r="O45" s="2">
+        <f>($C7-$F$19)^2</f>
+        <v>293.87755102040825</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B46" s="1">
+        <f>(C8-$G$6)^2</f>
+        <v>367.36111111111103</v>
+      </c>
+      <c r="C46" s="1">
+        <f>(C8-$G$7)^2</f>
+        <v>437.19008264462798</v>
+      </c>
+      <c r="D46" s="2">
         <f>(E8-$F$8)^2</f>
         <v>413.4444444444444</v>
       </c>
-      <c r="F28" s="2">
+      <c r="E46" s="2">
         <f>($C8-$F$9)^2</f>
         <v>4</v>
       </c>
-      <c r="G28" s="2">
+      <c r="F46" s="2">
         <f>($C8-$F$10)^2</f>
-        <v>210.25</v>
-      </c>
-      <c r="H28" s="2">
-        <f t="shared" si="3"/>
-        <v>279.36734693877554</v>
-      </c>
-      <c r="I28" s="2">
-        <f t="shared" si="4"/>
-        <v>279.36734693877554</v>
-      </c>
-      <c r="J28" s="2">
-        <f t="shared" si="5"/>
-        <v>630.56790123456801</v>
-      </c>
-      <c r="K28" s="2">
-        <f t="shared" si="6"/>
-        <v>789.61000000000013</v>
-      </c>
-      <c r="L28" s="2">
-        <f t="shared" si="7"/>
-        <v>910.9421487603305</v>
-      </c>
-      <c r="M28" s="2">
-        <f t="shared" si="8"/>
-        <v>765.44444444444434</v>
-      </c>
-      <c r="N28" s="2">
-        <f t="shared" si="9"/>
-        <v>613.51479289940812</v>
-      </c>
-      <c r="O28" s="2">
-        <f t="shared" si="10"/>
-        <v>613.51479289940812</v>
-      </c>
-      <c r="P28" s="2">
-        <f t="shared" si="11"/>
-        <v>545.55612244897941</v>
-      </c>
-      <c r="W28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="X28" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="C29" s="1">
-        <f t="shared" si="12"/>
-        <v>697.8402777777776</v>
-      </c>
-      <c r="D29" s="1">
-        <f t="shared" si="13"/>
-        <v>830.48760330578523</v>
-      </c>
-      <c r="E29" s="1">
-        <f t="shared" ref="E29:E39" si="14">($C9-$G$8)^2</f>
-        <v>1004.8900000000002</v>
-      </c>
-      <c r="F29" s="2">
+      <c r="G46" s="2">
+        <f>($C8-$F$11)^2</f>
+        <v>18.367346938775501</v>
+      </c>
+      <c r="H46" s="2">
+        <f>($C8-$F$12)^2</f>
+        <v>18.367346938775501</v>
+      </c>
+      <c r="I46" s="2">
+        <f>($C8-$F$13)^2</f>
+        <v>238.5308641975308</v>
+      </c>
+      <c r="J46" s="2">
+        <f>($C8-$F$14)^2</f>
+        <v>376.35999999999996</v>
+      </c>
+      <c r="K46" s="2">
+        <f>($C8-$F$15)^2</f>
+        <v>496.07438016528931</v>
+      </c>
+      <c r="L46" s="2">
+        <f>($C8-$F$16)^2</f>
+        <v>416.84027777777766</v>
+      </c>
+      <c r="M46" s="2">
+        <f>($C8-$F$17)^2</f>
+        <v>326.77514792899422</v>
+      </c>
+      <c r="N46" s="2">
+        <f>($C8-$F$18)^2</f>
+        <v>326.77514792899422</v>
+      </c>
+      <c r="O46" s="2">
+        <f>($C8-$F$19)^2</f>
+        <v>293.87755102040825</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B47" s="1">
+        <f>(C9-$G$6)^2</f>
+        <v>367.36111111111103</v>
+      </c>
+      <c r="C47" s="1">
+        <f>(C9-$G$7)^2</f>
+        <v>437.19008264462798</v>
+      </c>
+      <c r="D47" s="1">
+        <f>($C9-$G$8)^2</f>
+        <v>529</v>
+      </c>
+      <c r="E47" s="2">
         <f>($C9-$F$9)^2</f>
         <v>4</v>
       </c>
-      <c r="G29" s="2">
+      <c r="F47" s="2">
         <f>($C9-$F$10)^2</f>
-        <v>210.25</v>
-      </c>
-      <c r="H29" s="2">
-        <f t="shared" si="3"/>
-        <v>279.36734693877554</v>
-      </c>
-      <c r="I29" s="2">
-        <f t="shared" si="4"/>
-        <v>279.36734693877554</v>
-      </c>
-      <c r="J29" s="2">
-        <f t="shared" si="5"/>
-        <v>630.56790123456801</v>
-      </c>
-      <c r="K29" s="2">
-        <f t="shared" si="6"/>
-        <v>789.61000000000013</v>
-      </c>
-      <c r="L29" s="2">
-        <f t="shared" si="7"/>
-        <v>910.9421487603305</v>
-      </c>
-      <c r="M29" s="2">
-        <f t="shared" si="8"/>
-        <v>765.44444444444434</v>
-      </c>
-      <c r="N29" s="2">
-        <f t="shared" si="9"/>
-        <v>613.51479289940812</v>
-      </c>
-      <c r="O29" s="2">
-        <f t="shared" si="10"/>
-        <v>613.51479289940812</v>
-      </c>
-      <c r="P29" s="2">
-        <f t="shared" si="11"/>
-        <v>545.55612244897941</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="W29" s="1">
-        <f>HLOOKUP(MIN(C42:P42),B42:P43,2,FALSE)</f>
-        <v>5</v>
-      </c>
-      <c r="X29" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="C30" s="1">
-        <f t="shared" si="12"/>
-        <v>697.8402777777776</v>
-      </c>
-      <c r="D30" s="1">
-        <f t="shared" si="13"/>
-        <v>830.48760330578523</v>
-      </c>
-      <c r="E30" s="1">
-        <f t="shared" si="14"/>
-        <v>1004.8900000000002</v>
-      </c>
-      <c r="F30" s="1">
-        <f t="shared" ref="F30:F39" si="15">($C10-$G$9)^2</f>
-        <v>1240.6049382716049</v>
-      </c>
-      <c r="G30" s="2">
+      <c r="G47" s="2">
+        <f>($C9-$F$11)^2</f>
+        <v>18.367346938775501</v>
+      </c>
+      <c r="H47" s="2">
+        <f>($C9-$F$12)^2</f>
+        <v>18.367346938775501</v>
+      </c>
+      <c r="I47" s="2">
+        <f>($C9-$F$13)^2</f>
+        <v>238.5308641975308</v>
+      </c>
+      <c r="J47" s="2">
+        <f>($C9-$F$14)^2</f>
+        <v>376.35999999999996</v>
+      </c>
+      <c r="K47" s="2">
+        <f>($C9-$F$15)^2</f>
+        <v>496.07438016528931</v>
+      </c>
+      <c r="L47" s="2">
+        <f>($C9-$F$16)^2</f>
+        <v>416.84027777777766</v>
+      </c>
+      <c r="M47" s="2">
+        <f>($C9-$F$17)^2</f>
+        <v>326.77514792899422</v>
+      </c>
+      <c r="N47" s="2">
+        <f>($C9-$F$18)^2</f>
+        <v>326.77514792899422</v>
+      </c>
+      <c r="O47" s="2">
+        <f>($C9-$F$19)^2</f>
+        <v>293.87755102040825</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B48" s="1">
+        <f>(C10-$G$6)^2</f>
+        <v>367.36111111111103</v>
+      </c>
+      <c r="C48" s="1">
+        <f>(C10-$G$7)^2</f>
+        <v>437.19008264462798</v>
+      </c>
+      <c r="D48" s="1">
+        <f>($C10-$G$8)^2</f>
+        <v>529</v>
+      </c>
+      <c r="E48" s="1">
+        <f>($C10-$G$9)^2</f>
+        <v>653.08641975308649</v>
+      </c>
+      <c r="F48" s="2">
         <f>($C10-$F$10)^2</f>
-        <v>210.25</v>
-      </c>
-      <c r="H30" s="2">
-        <f t="shared" si="3"/>
-        <v>279.36734693877554</v>
-      </c>
-      <c r="I30" s="2">
-        <f t="shared" si="4"/>
-        <v>279.36734693877554</v>
-      </c>
-      <c r="J30" s="2">
-        <f t="shared" si="5"/>
-        <v>630.56790123456801</v>
-      </c>
-      <c r="K30" s="2">
-        <f t="shared" si="6"/>
-        <v>789.61000000000013</v>
-      </c>
-      <c r="L30" s="2">
-        <f t="shared" si="7"/>
-        <v>910.9421487603305</v>
-      </c>
-      <c r="M30" s="2">
-        <f t="shared" si="8"/>
-        <v>765.44444444444434</v>
-      </c>
-      <c r="N30" s="2">
-        <f t="shared" si="9"/>
-        <v>613.51479289940812</v>
-      </c>
-      <c r="O30" s="2">
-        <f t="shared" si="10"/>
-        <v>613.51479289940812</v>
-      </c>
-      <c r="P30" s="2">
-        <f t="shared" si="11"/>
-        <v>545.55612244897941</v>
-      </c>
-      <c r="W30" s="1">
-        <f>$W$29</f>
-        <v>5</v>
-      </c>
-      <c r="X30" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="C31" s="1">
-        <f t="shared" si="12"/>
-        <v>2558.6736111111113</v>
-      </c>
-      <c r="D31" s="1">
-        <f t="shared" si="13"/>
-        <v>2321.4876033057849</v>
-      </c>
-      <c r="E31" s="1">
-        <f t="shared" si="14"/>
-        <v>2052.0899999999997</v>
-      </c>
-      <c r="F31" s="1">
-        <f t="shared" si="15"/>
-        <v>1745.3827160493827</v>
-      </c>
-      <c r="G31" s="1">
-        <f t="shared" ref="G31:G39" si="16">($C11-$G$10)^2</f>
-        <v>2209</v>
-      </c>
-      <c r="H31" s="2">
-        <f t="shared" si="3"/>
-        <v>3634.3673469387754</v>
-      </c>
-      <c r="I31" s="2">
-        <f t="shared" si="4"/>
-        <v>3634.3673469387754</v>
-      </c>
-      <c r="J31" s="2">
-        <f t="shared" si="5"/>
-        <v>2692.4567901234564</v>
-      </c>
-      <c r="K31" s="2">
-        <f t="shared" si="6"/>
-        <v>2391.21</v>
-      </c>
-      <c r="L31" s="2">
-        <f t="shared" si="7"/>
-        <v>2191.9421487603308</v>
-      </c>
-      <c r="M31" s="2">
-        <f t="shared" si="8"/>
-        <v>2433.7777777777778</v>
-      </c>
-      <c r="N31" s="2">
-        <f t="shared" si="9"/>
-        <v>2728.0532544378702</v>
-      </c>
-      <c r="O31" s="2">
-        <f t="shared" si="10"/>
-        <v>2728.0532544378702</v>
-      </c>
-      <c r="P31" s="2">
-        <f t="shared" si="11"/>
-        <v>2877.5561224489797</v>
-      </c>
-    </row>
-    <row r="32" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="C32" s="1">
-        <f t="shared" si="12"/>
-        <v>12.840277777777795</v>
-      </c>
-      <c r="D32" s="1">
-        <f t="shared" si="13"/>
-        <v>1.3966942148760284</v>
-      </c>
-      <c r="E32" s="1">
-        <f t="shared" si="14"/>
-        <v>2.8900000000000095</v>
-      </c>
-      <c r="F32" s="1">
-        <f t="shared" si="15"/>
-        <v>27.271604938271597</v>
-      </c>
-      <c r="G32" s="1">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="H32" s="1">
-        <f t="shared" ref="H32:H39" si="17">($C12-$G$11)^2</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="2">
-        <f t="shared" si="4"/>
-        <v>176.51020408163262</v>
-      </c>
-      <c r="J32" s="2">
-        <f t="shared" si="5"/>
-        <v>23.901234567901202</v>
-      </c>
-      <c r="K32" s="2">
-        <f t="shared" si="6"/>
-        <v>3.6099999999999945</v>
-      </c>
-      <c r="L32" s="2">
-        <f t="shared" si="7"/>
-        <v>3.3057851239668715E-2</v>
-      </c>
-      <c r="M32" s="2">
-        <f t="shared" si="8"/>
-        <v>5.4444444444444553</v>
-      </c>
-      <c r="N32" s="2">
-        <f t="shared" si="9"/>
-        <v>27.36094674556216</v>
-      </c>
-      <c r="O32" s="2">
-        <f t="shared" si="10"/>
-        <v>27.36094674556216</v>
-      </c>
-      <c r="P32" s="2">
-        <f t="shared" si="11"/>
-        <v>44.127551020408205</v>
-      </c>
-      <c r="U32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="V32" s="1">
-        <v>6</v>
-      </c>
-      <c r="W32" s="1" t="str">
-        <f>CONCATENATE("C",V32)</f>
-        <v>C6</v>
-      </c>
-      <c r="X32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y32" s="1" t="str">
-        <f>_xlfn.CONCAT(W32,":",W33)</f>
-        <v>C6:C10</v>
-      </c>
-      <c r="AA32" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB32" s="1">
-        <f>V33+1</f>
-        <v>11</v>
-      </c>
-      <c r="AC32" s="1" t="str">
-        <f>CONCATENATE("C",AB32)</f>
-        <v>C11</v>
-      </c>
-      <c r="AD32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE32" s="1" t="str">
-        <f>_xlfn.CONCAT(AC32,":",AC33)</f>
-        <v>C11:C19</v>
-      </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="C33" s="1">
-        <f t="shared" si="12"/>
-        <v>817.00694444444457</v>
-      </c>
-      <c r="D33" s="1">
-        <f t="shared" si="13"/>
-        <v>685.487603305785</v>
-      </c>
-      <c r="E33" s="1">
-        <f t="shared" si="14"/>
-        <v>542.88999999999987</v>
-      </c>
-      <c r="F33" s="1">
-        <f t="shared" si="15"/>
-        <v>391.16049382716051</v>
-      </c>
-      <c r="G33" s="1">
-        <f t="shared" si="16"/>
-        <v>625</v>
-      </c>
-      <c r="H33" s="1">
-        <f t="shared" si="17"/>
-        <v>625</v>
-      </c>
-      <c r="I33" s="1">
-        <f t="shared" ref="I33:I39" si="18">($C13-$G$12)^2</f>
-        <v>850.69444444444434</v>
-      </c>
-      <c r="J33" s="2">
-        <f t="shared" si="5"/>
-        <v>893.3456790123455</v>
-      </c>
-      <c r="K33" s="2">
-        <f t="shared" si="6"/>
-        <v>723.6099999999999</v>
-      </c>
-      <c r="L33" s="2">
-        <f t="shared" si="7"/>
-        <v>615.94214876033072</v>
-      </c>
-      <c r="M33" s="2">
-        <f t="shared" si="8"/>
-        <v>747.1111111111112</v>
-      </c>
-      <c r="N33" s="2">
-        <f t="shared" si="9"/>
-        <v>913.89940828402382</v>
-      </c>
-      <c r="O33" s="2">
-        <f t="shared" si="10"/>
-        <v>913.89940828402382</v>
-      </c>
-      <c r="P33" s="2">
-        <f t="shared" si="11"/>
-        <v>1001.2704081632655</v>
-      </c>
-      <c r="V33" s="1">
-        <f>$V$32+W29-1</f>
-        <v>10</v>
-      </c>
-      <c r="W33" s="1" t="str">
-        <f>CONCATENATE("C",V33)</f>
-        <v>C10</v>
-      </c>
-      <c r="X33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y33" s="1">
-        <f ca="1">AVERAGE(INDIRECT(Y32))</f>
-        <v>22</v>
-      </c>
-      <c r="AB33" s="1">
-        <f>COUNT(B6:B19)-W29+AB32-1</f>
-        <v>19</v>
-      </c>
-      <c r="AC33" s="1" t="str">
-        <f>CONCATENATE("C",AB33)</f>
-        <v>C19</v>
-      </c>
-      <c r="AD33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE33" s="1">
-        <f ca="1">AVERAGE(INDIRECT(AE32))</f>
-        <v>55.222222222222221</v>
-      </c>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="C34" s="1">
-        <f t="shared" si="12"/>
-        <v>760.84027777777794</v>
-      </c>
-      <c r="D34" s="1">
-        <f t="shared" si="13"/>
-        <v>634.12396694214863</v>
-      </c>
-      <c r="E34" s="1">
-        <f t="shared" si="14"/>
-        <v>497.28999999999985</v>
-      </c>
-      <c r="F34" s="1">
-        <f t="shared" si="15"/>
-        <v>352.60493827160496</v>
-      </c>
-      <c r="G34" s="1">
-        <f t="shared" si="16"/>
-        <v>576</v>
-      </c>
-      <c r="H34" s="1">
-        <f t="shared" si="17"/>
-        <v>576</v>
-      </c>
-      <c r="I34" s="1">
-        <f t="shared" si="18"/>
-        <v>793.36111111111097</v>
-      </c>
-      <c r="J34" s="1">
-        <f t="shared" ref="J34:J39" si="19">($C14-$G$13)^2</f>
-        <v>1142.4399999999998</v>
-      </c>
-      <c r="K34" s="2">
-        <f t="shared" si="6"/>
-        <v>670.81</v>
-      </c>
-      <c r="L34" s="2">
-        <f t="shared" si="7"/>
-        <v>567.30578512396698</v>
-      </c>
-      <c r="M34" s="2">
-        <f t="shared" si="8"/>
-        <v>693.44444444444457</v>
-      </c>
-      <c r="N34" s="2">
-        <f t="shared" si="9"/>
-        <v>854.43786982248537</v>
-      </c>
-      <c r="O34" s="2">
-        <f t="shared" si="10"/>
-        <v>854.43786982248537</v>
-      </c>
-      <c r="P34" s="2">
-        <f t="shared" si="11"/>
-        <v>938.98469387755119</v>
-      </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="C35" s="1">
-        <f t="shared" si="12"/>
-        <v>817.00694444444457</v>
-      </c>
-      <c r="D35" s="1">
-        <f t="shared" si="13"/>
-        <v>685.487603305785</v>
-      </c>
-      <c r="E35" s="1">
-        <f t="shared" si="14"/>
-        <v>542.88999999999987</v>
-      </c>
-      <c r="F35" s="1">
-        <f t="shared" si="15"/>
-        <v>391.16049382716051</v>
-      </c>
-      <c r="G35" s="1">
-        <f t="shared" si="16"/>
-        <v>625</v>
-      </c>
-      <c r="H35" s="1">
-        <f t="shared" si="17"/>
-        <v>625</v>
-      </c>
-      <c r="I35" s="1">
-        <f t="shared" si="18"/>
-        <v>850.69444444444434</v>
-      </c>
-      <c r="J35" s="1">
-        <f t="shared" si="19"/>
-        <v>1211.0399999999997</v>
-      </c>
-      <c r="K35" s="1">
-        <f>($C15-$G$14)^2</f>
-        <v>1892.25</v>
-      </c>
-      <c r="L35" s="2">
-        <f t="shared" si="7"/>
-        <v>615.94214876033072</v>
-      </c>
-      <c r="M35" s="2">
-        <f t="shared" si="8"/>
-        <v>747.1111111111112</v>
-      </c>
-      <c r="N35" s="2">
-        <f t="shared" si="9"/>
-        <v>913.89940828402382</v>
-      </c>
-      <c r="O35" s="2">
-        <f t="shared" si="10"/>
-        <v>913.89940828402382</v>
-      </c>
-      <c r="P35" s="2">
-        <f t="shared" si="11"/>
-        <v>1001.2704081632655</v>
-      </c>
-      <c r="X35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD35" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="C36" s="1">
-        <f t="shared" si="12"/>
-        <v>604.34027777777794</v>
-      </c>
-      <c r="D36" s="1">
-        <f t="shared" si="13"/>
-        <v>492.03305785123956</v>
-      </c>
-      <c r="E36" s="1">
-        <f t="shared" si="14"/>
-        <v>372.4899999999999</v>
-      </c>
-      <c r="F36" s="1">
-        <f t="shared" si="15"/>
-        <v>248.93827160493831</v>
-      </c>
-      <c r="G36" s="1">
-        <f t="shared" si="16"/>
-        <v>441</v>
-      </c>
-      <c r="H36" s="1">
-        <f t="shared" si="17"/>
-        <v>441</v>
-      </c>
-      <c r="I36" s="1">
-        <f t="shared" si="18"/>
-        <v>633.36111111111097</v>
-      </c>
-      <c r="J36" s="1">
-        <f t="shared" si="19"/>
-        <v>948.63999999999987</v>
-      </c>
-      <c r="K36" s="1">
-        <f>($C16-$G$14)^2</f>
-        <v>1560.25</v>
-      </c>
-      <c r="L36" s="1">
-        <f>($C16-$G$15)^2</f>
-        <v>2773.7777777777783</v>
-      </c>
-      <c r="M36" s="2">
-        <f t="shared" si="8"/>
-        <v>544.44444444444457</v>
-      </c>
-      <c r="N36" s="2">
-        <f t="shared" si="9"/>
-        <v>688.05325443787001</v>
-      </c>
-      <c r="O36" s="2">
-        <f t="shared" si="10"/>
-        <v>688.05325443787001</v>
-      </c>
-      <c r="P36" s="2">
-        <f t="shared" si="11"/>
-        <v>764.1275510204083</v>
-      </c>
-      <c r="X36" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="1">
-        <f ca="1">Y33</f>
-        <v>22</v>
-      </c>
-      <c r="AC36" s="1">
-        <f>X37</f>
-        <v>5</v>
-      </c>
-      <c r="AD36" s="1">
-        <f ca="1">AE33</f>
-        <v>55.222222222222221</v>
-      </c>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="C37" s="1">
-        <f t="shared" si="12"/>
-        <v>697.8402777777776</v>
-      </c>
-      <c r="D37" s="1">
-        <f t="shared" si="13"/>
-        <v>830.48760330578523</v>
-      </c>
-      <c r="E37" s="1">
-        <f t="shared" si="14"/>
-        <v>1004.8900000000002</v>
-      </c>
-      <c r="F37" s="1">
-        <f t="shared" si="15"/>
-        <v>1240.6049382716049</v>
-      </c>
-      <c r="G37" s="1">
-        <f t="shared" si="16"/>
-        <v>900</v>
-      </c>
-      <c r="H37" s="1">
-        <f t="shared" si="17"/>
-        <v>900</v>
-      </c>
-      <c r="I37" s="1">
-        <f t="shared" si="18"/>
-        <v>667.3611111111112</v>
-      </c>
-      <c r="J37" s="1">
-        <f t="shared" si="19"/>
-        <v>408.04000000000013</v>
-      </c>
-      <c r="K37" s="1">
-        <f>($C17-$G$14)^2</f>
-        <v>132.25</v>
-      </c>
-      <c r="L37" s="1">
-        <f>($C17-$G$15)^2</f>
-        <v>2.7777777777777817</v>
-      </c>
-      <c r="M37" s="1">
-        <f>($C17-$G$16)^2</f>
-        <v>6.25</v>
-      </c>
-      <c r="N37" s="2">
-        <f t="shared" si="9"/>
-        <v>613.51479289940812</v>
-      </c>
-      <c r="O37" s="2">
-        <f t="shared" si="10"/>
-        <v>613.51479289940812</v>
-      </c>
-      <c r="P37" s="2">
-        <f t="shared" si="11"/>
-        <v>545.55612244897941</v>
-      </c>
-      <c r="X37" s="1">
-        <f>W29</f>
-        <v>5</v>
-      </c>
-      <c r="Y37" s="1">
-        <f ca="1">Y33</f>
-        <v>22</v>
-      </c>
-      <c r="AC37" s="1">
-        <f>B19</f>
-        <v>14</v>
-      </c>
-      <c r="AD37" s="1">
-        <f ca="1">AE33</f>
-        <v>55.222222222222221</v>
-      </c>
-    </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="C38" s="1">
-        <f t="shared" si="12"/>
-        <v>1326.1736111111109</v>
-      </c>
-      <c r="D38" s="1">
-        <f t="shared" si="13"/>
-        <v>1506.8512396694216</v>
-      </c>
-      <c r="E38" s="1">
-        <f t="shared" si="14"/>
-        <v>1738.8900000000003</v>
-      </c>
-      <c r="F38" s="1">
-        <f t="shared" si="15"/>
-        <v>2045.0493827160494</v>
-      </c>
-      <c r="G38" s="1">
-        <f t="shared" si="16"/>
-        <v>1600</v>
-      </c>
-      <c r="H38" s="1">
-        <f t="shared" si="17"/>
-        <v>1600</v>
-      </c>
-      <c r="I38" s="1">
-        <f t="shared" si="18"/>
-        <v>1284.0277777777781</v>
-      </c>
-      <c r="J38" s="1">
-        <f t="shared" si="19"/>
-        <v>912.04000000000019</v>
-      </c>
-      <c r="K38" s="1">
-        <f>($C18-$G$14)^2</f>
-        <v>462.25</v>
-      </c>
-      <c r="L38" s="1">
-        <f>($C18-$G$15)^2</f>
-        <v>69.444444444444429</v>
-      </c>
-      <c r="M38" s="1">
-        <f>($C18-$G$16)^2</f>
-        <v>56.25</v>
-      </c>
-      <c r="N38" s="1">
-        <f>($C18-$G$17)^2</f>
-        <v>225</v>
-      </c>
-      <c r="O38" s="2">
-        <f t="shared" si="10"/>
-        <v>1208.8994082840234</v>
-      </c>
-      <c r="P38" s="2">
-        <f t="shared" si="11"/>
-        <v>1112.6989795918366</v>
-      </c>
-    </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="C39" s="1">
-        <f t="shared" si="12"/>
-        <v>458.67361111111103</v>
-      </c>
-      <c r="D39" s="1">
-        <f t="shared" si="13"/>
-        <v>567.30578512396698</v>
-      </c>
-      <c r="E39" s="1">
-        <f t="shared" si="14"/>
-        <v>712.8900000000001</v>
-      </c>
-      <c r="F39" s="1">
-        <f t="shared" si="15"/>
-        <v>913.38271604938268</v>
-      </c>
-      <c r="G39" s="1">
-        <f t="shared" si="16"/>
-        <v>625</v>
-      </c>
-      <c r="H39" s="1">
-        <f t="shared" si="17"/>
-        <v>625</v>
-      </c>
-      <c r="I39" s="1">
-        <f t="shared" si="18"/>
-        <v>434.02777777777789</v>
-      </c>
-      <c r="J39" s="1">
-        <f t="shared" si="19"/>
-        <v>231.04000000000008</v>
-      </c>
-      <c r="K39" s="1">
-        <f>($C19-$G$14)^2</f>
-        <v>42.25</v>
-      </c>
-      <c r="L39" s="1">
-        <f>($C19-$G$15)^2</f>
-        <v>44.444444444444457</v>
-      </c>
-      <c r="M39" s="1">
-        <f>($C19-$G$16)^2</f>
-        <v>56.25</v>
-      </c>
-      <c r="N39" s="1">
-        <f>($C19-$G$18)^2</f>
-        <v>0</v>
-      </c>
-      <c r="O39" s="1">
-        <f>($C19-$G$19)^2</f>
-        <v>0</v>
-      </c>
-      <c r="P39" s="2">
-        <f t="shared" si="11"/>
-        <v>336.98469387755091</v>
-      </c>
-    </row>
-    <row r="41" spans="2:31" ht="19.7" x14ac:dyDescent="0.35">
-      <c r="C41" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="1">
-        <f>SUM(C26:C39)/COUNT(C26:C39)</f>
-        <v>776.41121031746025</v>
-      </c>
-      <c r="D42" s="1">
-        <f t="shared" ref="D42:P42" si="20">SUM(D26:D39)/COUNT(D26:D39)</f>
-        <v>733.29456906729627</v>
-      </c>
-      <c r="E42" s="1">
-        <f t="shared" si="20"/>
-        <v>774.59452380952382</v>
-      </c>
-      <c r="F42" s="1">
-        <f t="shared" si="20"/>
-        <v>619.44003527336849</v>
-      </c>
-      <c r="G42" s="1">
-        <f t="shared" si="20"/>
-        <v>604.44642857142856</v>
-      </c>
-      <c r="H42" s="1">
-        <f t="shared" si="20"/>
-        <v>727.77988338192415</v>
-      </c>
-      <c r="I42" s="1">
-        <f t="shared" si="20"/>
-        <v>749.06831065759627</v>
-      </c>
-      <c r="J42" s="1">
-        <f t="shared" si="20"/>
-        <v>800.96864197530874</v>
-      </c>
-      <c r="K42" s="1">
-        <f t="shared" si="20"/>
-        <v>811.75285714285712</v>
-      </c>
-      <c r="L42" s="1">
-        <f t="shared" si="20"/>
-        <v>780.90600813328092</v>
-      </c>
-      <c r="M42" s="1">
-        <f t="shared" si="20"/>
-        <v>618.85515873015879</v>
-      </c>
-      <c r="N42" s="1">
-        <f t="shared" si="20"/>
-        <v>688.31487743026207</v>
-      </c>
-      <c r="O42" s="1">
-        <f t="shared" si="20"/>
-        <v>758.59340659340671</v>
-      </c>
-      <c r="P42" s="1">
-        <f t="shared" si="20"/>
-        <v>784.51530612244903</v>
-      </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="1">
-        <f t="array" ref="C43:P43">TRANSPOSE(B6:B19)</f>
-        <v>1</v>
-      </c>
-      <c r="D43" s="1">
-        <v>2</v>
-      </c>
-      <c r="E43" s="1">
-        <v>3</v>
-      </c>
-      <c r="F43" s="1">
-        <v>4</v>
-      </c>
-      <c r="G43" s="1">
-        <v>5</v>
-      </c>
-      <c r="H43" s="1">
-        <v>6</v>
-      </c>
-      <c r="I43" s="1">
-        <v>7</v>
-      </c>
-      <c r="J43" s="1">
-        <v>8</v>
-      </c>
-      <c r="K43" s="1">
-        <v>9</v>
-      </c>
-      <c r="L43" s="1">
-        <v>10</v>
-      </c>
-      <c r="M43" s="1">
-        <v>11</v>
-      </c>
-      <c r="N43" s="1">
-        <v>12</v>
-      </c>
-      <c r="O43" s="1">
-        <v>13</v>
-      </c>
-      <c r="P43" s="1">
-        <v>14</v>
+      <c r="G48" s="2">
+        <f>($C10-$F$11)^2</f>
+        <v>18.367346938775501</v>
+      </c>
+      <c r="H48" s="2">
+        <f>($C10-$F$12)^2</f>
+        <v>18.367346938775501</v>
+      </c>
+      <c r="I48" s="2">
+        <f>($C10-$F$13)^2</f>
+        <v>238.5308641975308</v>
+      </c>
+      <c r="J48" s="2">
+        <f>($C10-$F$14)^2</f>
+        <v>376.35999999999996</v>
+      </c>
+      <c r="K48" s="2">
+        <f>($C10-$F$15)^2</f>
+        <v>496.07438016528931</v>
+      </c>
+      <c r="L48" s="2">
+        <f>($C10-$F$16)^2</f>
+        <v>416.84027777777766</v>
+      </c>
+      <c r="M48" s="2">
+        <f>($C10-$F$17)^2</f>
+        <v>326.77514792899422</v>
+      </c>
+      <c r="N48" s="2">
+        <f>($C10-$F$18)^2</f>
+        <v>326.77514792899422</v>
+      </c>
+      <c r="O48" s="2">
+        <f>($C10-$F$19)^2</f>
+        <v>293.87755102040825</v>
       </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49"/>
-      <c r="B49"/>
-      <c r="C49"/>
-      <c r="D49"/>
-      <c r="E49"/>
-      <c r="F49"/>
-      <c r="G49"/>
-      <c r="H49"/>
-      <c r="I49"/>
-      <c r="J49"/>
-      <c r="K49"/>
-      <c r="L49"/>
-      <c r="M49"/>
-      <c r="N49"/>
-      <c r="O49"/>
-      <c r="P49"/>
-      <c r="Q49"/>
-      <c r="R49"/>
-      <c r="S49"/>
+      <c r="B49" s="1">
+        <f>(C11-$G$6)^2</f>
+        <v>850.69444444444434</v>
+      </c>
+      <c r="C49" s="1">
+        <f>(C11-$G$7)^2</f>
+        <v>955.37190082644611</v>
+      </c>
+      <c r="D49" s="1">
+        <f>($C11-$G$8)^2</f>
+        <v>1089</v>
+      </c>
+      <c r="E49" s="1">
+        <f>($C11-$G$9)^2</f>
+        <v>1264.1975308641977</v>
+      </c>
+      <c r="F49" s="1">
+        <f>($C11-$G$10)^2</f>
+        <v>1600</v>
+      </c>
+      <c r="G49" s="2">
+        <f>($C11-$F$11)^2</f>
+        <v>204.08163265306121</v>
+      </c>
+      <c r="H49" s="2">
+        <f>($C11-$F$12)^2</f>
+        <v>204.08163265306121</v>
+      </c>
+      <c r="I49" s="2">
+        <f>($C11-$F$13)^2</f>
+        <v>647.41975308641963</v>
+      </c>
+      <c r="J49" s="2">
+        <f>($C11-$F$14)^2</f>
+        <v>864.3599999999999</v>
+      </c>
+      <c r="K49" s="2">
+        <f>($C11-$F$15)^2</f>
+        <v>1041.5289256198348</v>
+      </c>
+      <c r="L49" s="2">
+        <f>($C11-$F$16)^2</f>
+        <v>925.17361111111097</v>
+      </c>
+      <c r="M49" s="2">
+        <f>($C11-$F$17)^2</f>
+        <v>788.31360946745576</v>
+      </c>
+      <c r="N49" s="2">
+        <f>($C11-$F$18)^2</f>
+        <v>788.31360946745576</v>
+      </c>
+      <c r="O49" s="2">
+        <f>($C11-$F$19)^2</f>
+        <v>736.73469387755119</v>
+      </c>
       <c r="T49"/>
       <c r="U49"/>
       <c r="V49"/>
@@ -5953,24 +6625,62 @@
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50"/>
-      <c r="B50"/>
-      <c r="C50"/>
-      <c r="D50"/>
-      <c r="E50"/>
-      <c r="F50"/>
-      <c r="G50"/>
-      <c r="H50"/>
-      <c r="I50"/>
-      <c r="J50"/>
-      <c r="K50"/>
-      <c r="L50"/>
-      <c r="M50"/>
-      <c r="N50"/>
-      <c r="O50"/>
-      <c r="P50"/>
-      <c r="Q50"/>
-      <c r="R50"/>
-      <c r="S50"/>
+      <c r="B50" s="1">
+        <f>(C12-$G$6)^2</f>
+        <v>117.36111111111116</v>
+      </c>
+      <c r="C50" s="1">
+        <f>(C12-$G$7)^2</f>
+        <v>82.644628099173602</v>
+      </c>
+      <c r="D50" s="1">
+        <f>($C12-$G$8)^2</f>
+        <v>49</v>
+      </c>
+      <c r="E50" s="1">
+        <f>($C12-$G$9)^2</f>
+        <v>19.753086419753071</v>
+      </c>
+      <c r="F50" s="1">
+        <f>($C12-$G$10)^2</f>
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <f>($C12-$G$11)^2</f>
+        <v>0</v>
+      </c>
+      <c r="H50" s="2">
+        <f>($C12-$F$12)^2</f>
+        <v>661.22448979591843</v>
+      </c>
+      <c r="I50" s="2">
+        <f>($C12-$F$13)^2</f>
+        <v>211.86419753086423</v>
+      </c>
+      <c r="J50" s="2">
+        <f>($C12-$F$14)^2</f>
+        <v>112.36000000000003</v>
+      </c>
+      <c r="K50" s="2">
+        <f>($C12-$F$15)^2</f>
+        <v>59.710743801652882</v>
+      </c>
+      <c r="L50" s="2">
+        <f>($C12-$F$16)^2</f>
+        <v>91.840277777777828</v>
+      </c>
+      <c r="M50" s="2">
+        <f>($C12-$F$17)^2</f>
+        <v>142.1597633136094</v>
+      </c>
+      <c r="N50" s="2">
+        <f>($C12-$F$18)^2</f>
+        <v>142.1597633136094</v>
+      </c>
+      <c r="O50" s="2">
+        <f>($C12-$F$19)^2</f>
+        <v>165.30612244897952</v>
+      </c>
       <c r="T50"/>
       <c r="U50"/>
       <c r="V50"/>
@@ -5984,24 +6694,62 @@
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51"/>
-      <c r="B51"/>
-      <c r="C51"/>
-      <c r="D51"/>
-      <c r="E51"/>
-      <c r="F51"/>
-      <c r="G51"/>
-      <c r="H51"/>
-      <c r="I51"/>
-      <c r="J51"/>
-      <c r="K51"/>
-      <c r="L51"/>
-      <c r="M51"/>
-      <c r="N51"/>
-      <c r="O51"/>
-      <c r="P51"/>
-      <c r="Q51"/>
-      <c r="R51"/>
-      <c r="S51"/>
+      <c r="B51" s="1">
+        <f>(C13-$G$6)^2</f>
+        <v>1284.0277777777781</v>
+      </c>
+      <c r="C51" s="1">
+        <f>(C13-$G$7)^2</f>
+        <v>1162.1900826446283</v>
+      </c>
+      <c r="D51" s="1">
+        <f>($C13-$G$8)^2</f>
+        <v>1024</v>
+      </c>
+      <c r="E51" s="1">
+        <f>($C13-$G$9)^2</f>
+        <v>866.97530864197518</v>
+      </c>
+      <c r="F51" s="1">
+        <f>($C13-$G$10)^2</f>
+        <v>625</v>
+      </c>
+      <c r="G51" s="1">
+        <f>($C13-$G$11)^2</f>
+        <v>625</v>
+      </c>
+      <c r="H51" s="1">
+        <f>($C13-$G$12)^2</f>
+        <v>850.69444444444434</v>
+      </c>
+      <c r="I51" s="2">
+        <f>($C13-$F$13)^2</f>
+        <v>1564.641975308642</v>
+      </c>
+      <c r="J51" s="2">
+        <f>($C13-$F$14)^2</f>
+        <v>1267.3600000000001</v>
+      </c>
+      <c r="K51" s="2">
+        <f>($C13-$F$15)^2</f>
+        <v>1071.0743801652893</v>
+      </c>
+      <c r="L51" s="2">
+        <f>($C13-$F$16)^2</f>
+        <v>1196.0069444444446</v>
+      </c>
+      <c r="M51" s="2">
+        <f>($C13-$F$17)^2</f>
+        <v>1363.3136094674553</v>
+      </c>
+      <c r="N51" s="2">
+        <f>($C13-$F$18)^2</f>
+        <v>1363.3136094674553</v>
+      </c>
+      <c r="O51" s="2">
+        <f>($C13-$F$19)^2</f>
+        <v>1433.1632653061222</v>
+      </c>
       <c r="T51"/>
       <c r="U51"/>
       <c r="V51"/>
@@ -6015,24 +6763,62 @@
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52"/>
-      <c r="B52"/>
-      <c r="C52"/>
-      <c r="D52"/>
-      <c r="E52"/>
-      <c r="F52"/>
-      <c r="G52"/>
-      <c r="H52"/>
-      <c r="I52"/>
-      <c r="J52"/>
-      <c r="K52"/>
-      <c r="L52"/>
-      <c r="M52"/>
-      <c r="N52"/>
-      <c r="O52"/>
-      <c r="P52"/>
-      <c r="Q52"/>
-      <c r="R52"/>
-      <c r="S52"/>
+      <c r="B52" s="1">
+        <f>(C14-$G$6)^2</f>
+        <v>1213.3611111111113</v>
+      </c>
+      <c r="C52" s="1">
+        <f>(C14-$G$7)^2</f>
+        <v>1095.0082644628101</v>
+      </c>
+      <c r="D52" s="1">
+        <f>($C14-$G$8)^2</f>
+        <v>961</v>
+      </c>
+      <c r="E52" s="1">
+        <f>($C14-$G$9)^2</f>
+        <v>809.08641975308637</v>
+      </c>
+      <c r="F52" s="1">
+        <f>($C14-$G$10)^2</f>
+        <v>576</v>
+      </c>
+      <c r="G52" s="1">
+        <f>($C14-$G$11)^2</f>
+        <v>576</v>
+      </c>
+      <c r="H52" s="1">
+        <f>($C14-$G$12)^2</f>
+        <v>793.36111111111097</v>
+      </c>
+      <c r="I52" s="1">
+        <f>($C14-$G$13)^2</f>
+        <v>1142.4399999999998</v>
+      </c>
+      <c r="J52" s="2">
+        <f>($C14-$F$14)^2</f>
+        <v>1197.1600000000001</v>
+      </c>
+      <c r="K52" s="2">
+        <f>($C14-$F$15)^2</f>
+        <v>1006.6198347107438</v>
+      </c>
+      <c r="L52" s="2">
+        <f>($C14-$F$16)^2</f>
+        <v>1127.8402777777778</v>
+      </c>
+      <c r="M52" s="2">
+        <f>($C14-$F$17)^2</f>
+        <v>1290.4674556213015</v>
+      </c>
+      <c r="N52" s="2">
+        <f>($C14-$F$18)^2</f>
+        <v>1290.4674556213015</v>
+      </c>
+      <c r="O52" s="2">
+        <f>($C14-$F$19)^2</f>
+        <v>1358.4489795918364</v>
+      </c>
       <c r="T52"/>
       <c r="U52"/>
       <c r="V52"/>
@@ -6046,24 +6832,62 @@
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53"/>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53"/>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53"/>
-      <c r="I53"/>
-      <c r="J53"/>
-      <c r="K53"/>
-      <c r="L53"/>
-      <c r="M53"/>
-      <c r="N53"/>
-      <c r="O53"/>
-      <c r="P53"/>
-      <c r="Q53"/>
-      <c r="R53"/>
-      <c r="S53"/>
+      <c r="B53" s="1">
+        <f>(C15-$G$6)^2</f>
+        <v>1284.0277777777781</v>
+      </c>
+      <c r="C53" s="1">
+        <f>(C15-$G$7)^2</f>
+        <v>1162.1900826446283</v>
+      </c>
+      <c r="D53" s="1">
+        <f>($C15-$G$8)^2</f>
+        <v>1024</v>
+      </c>
+      <c r="E53" s="1">
+        <f>($C15-$G$9)^2</f>
+        <v>866.97530864197518</v>
+      </c>
+      <c r="F53" s="1">
+        <f>($C15-$G$10)^2</f>
+        <v>625</v>
+      </c>
+      <c r="G53" s="1">
+        <f>($C15-$G$11)^2</f>
+        <v>625</v>
+      </c>
+      <c r="H53" s="1">
+        <f>($C15-$G$12)^2</f>
+        <v>850.69444444444434</v>
+      </c>
+      <c r="I53" s="1">
+        <f>($C15-$G$13)^2</f>
+        <v>1211.0399999999997</v>
+      </c>
+      <c r="J53" s="1">
+        <f>($C15-$G$14)^2</f>
+        <v>1892.25</v>
+      </c>
+      <c r="K53" s="2">
+        <f>($C15-$F$15)^2</f>
+        <v>1071.0743801652893</v>
+      </c>
+      <c r="L53" s="2">
+        <f>($C15-$F$16)^2</f>
+        <v>1196.0069444444446</v>
+      </c>
+      <c r="M53" s="2">
+        <f>($C15-$F$17)^2</f>
+        <v>1363.3136094674553</v>
+      </c>
+      <c r="N53" s="2">
+        <f>($C15-$F$18)^2</f>
+        <v>1363.3136094674553</v>
+      </c>
+      <c r="O53" s="2">
+        <f>($C15-$F$19)^2</f>
+        <v>1433.1632653061222</v>
+      </c>
       <c r="T53"/>
       <c r="U53"/>
       <c r="V53"/>
@@ -6077,24 +6901,62 @@
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54"/>
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54"/>
-      <c r="I54"/>
-      <c r="J54"/>
-      <c r="K54"/>
-      <c r="L54"/>
-      <c r="M54"/>
-      <c r="N54"/>
-      <c r="O54"/>
-      <c r="P54"/>
-      <c r="Q54"/>
-      <c r="R54"/>
-      <c r="S54"/>
+      <c r="B54" s="1">
+        <f>(C16-$G$6)^2</f>
+        <v>1013.3611111111113</v>
+      </c>
+      <c r="C54" s="1">
+        <f>(C16-$G$7)^2</f>
+        <v>905.46280991735557</v>
+      </c>
+      <c r="D54" s="1">
+        <f>($C16-$G$8)^2</f>
+        <v>784</v>
+      </c>
+      <c r="E54" s="1">
+        <f>($C16-$G$9)^2</f>
+        <v>647.41975308641963</v>
+      </c>
+      <c r="F54" s="1">
+        <f>($C16-$G$10)^2</f>
+        <v>441</v>
+      </c>
+      <c r="G54" s="1">
+        <f>($C16-$G$11)^2</f>
+        <v>441</v>
+      </c>
+      <c r="H54" s="1">
+        <f>($C16-$G$12)^2</f>
+        <v>633.36111111111097</v>
+      </c>
+      <c r="I54" s="1">
+        <f>($C16-$G$13)^2</f>
+        <v>948.63999999999987</v>
+      </c>
+      <c r="J54" s="1">
+        <f>($C16-$G$14)^2</f>
+        <v>1560.25</v>
+      </c>
+      <c r="K54" s="1">
+        <f>($C16-$G$15)^2</f>
+        <v>2773.7777777777783</v>
+      </c>
+      <c r="L54" s="2">
+        <f>($C16-$F$16)^2</f>
+        <v>935.34027777777794</v>
+      </c>
+      <c r="M54" s="2">
+        <f>($C16-$F$17)^2</f>
+        <v>1083.9289940828401</v>
+      </c>
+      <c r="N54" s="2">
+        <f>($C16-$F$18)^2</f>
+        <v>1083.9289940828401</v>
+      </c>
+      <c r="O54" s="2">
+        <f>($C16-$F$19)^2</f>
+        <v>1146.3061224489793</v>
+      </c>
       <c r="T54"/>
       <c r="U54"/>
       <c r="V54"/>
@@ -6108,24 +6970,62 @@
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55"/>
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55"/>
-      <c r="I55"/>
-      <c r="J55"/>
-      <c r="K55"/>
-      <c r="L55"/>
-      <c r="M55"/>
-      <c r="N55"/>
-      <c r="O55"/>
-      <c r="P55"/>
-      <c r="Q55"/>
-      <c r="R55"/>
-      <c r="S55"/>
+      <c r="B55" s="1">
+        <f>(C17-$G$6)^2</f>
+        <v>367.36111111111103</v>
+      </c>
+      <c r="C55" s="1">
+        <f>(C17-$G$7)^2</f>
+        <v>437.19008264462798</v>
+      </c>
+      <c r="D55" s="1">
+        <f>($C17-$G$8)^2</f>
+        <v>529</v>
+      </c>
+      <c r="E55" s="1">
+        <f>($C17-$G$9)^2</f>
+        <v>653.08641975308649</v>
+      </c>
+      <c r="F55" s="1">
+        <f>($C17-$G$10)^2</f>
+        <v>900</v>
+      </c>
+      <c r="G55" s="1">
+        <f>($C17-$G$11)^2</f>
+        <v>900</v>
+      </c>
+      <c r="H55" s="1">
+        <f>($C17-$G$12)^2</f>
+        <v>667.3611111111112</v>
+      </c>
+      <c r="I55" s="1">
+        <f>($C17-$G$13)^2</f>
+        <v>408.04000000000013</v>
+      </c>
+      <c r="J55" s="1">
+        <f>($C17-$G$14)^2</f>
+        <v>132.25</v>
+      </c>
+      <c r="K55" s="1">
+        <f>($C17-$G$15)^2</f>
+        <v>2.7777777777777817</v>
+      </c>
+      <c r="L55" s="1">
+        <f>($C17-$G$16)^2</f>
+        <v>6.25</v>
+      </c>
+      <c r="M55" s="2">
+        <f>($C17-$F$17)^2</f>
+        <v>326.77514792899422</v>
+      </c>
+      <c r="N55" s="2">
+        <f>($C17-$F$18)^2</f>
+        <v>326.77514792899422</v>
+      </c>
+      <c r="O55" s="2">
+        <f>($C17-$F$19)^2</f>
+        <v>293.87755102040825</v>
+      </c>
       <c r="T55"/>
       <c r="U55"/>
       <c r="V55"/>
@@ -6139,24 +7039,62 @@
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56"/>
-      <c r="B56"/>
-      <c r="C56"/>
-      <c r="D56"/>
-      <c r="E56"/>
-      <c r="F56"/>
-      <c r="G56"/>
-      <c r="H56"/>
-      <c r="I56"/>
-      <c r="J56"/>
-      <c r="K56"/>
-      <c r="L56"/>
-      <c r="M56"/>
-      <c r="N56"/>
-      <c r="O56"/>
-      <c r="P56"/>
-      <c r="Q56"/>
-      <c r="R56"/>
-      <c r="S56"/>
+      <c r="B56" s="1">
+        <f>(C18-$G$6)^2</f>
+        <v>850.69444444444434</v>
+      </c>
+      <c r="C56" s="1">
+        <f>(C18-$G$7)^2</f>
+        <v>955.37190082644611</v>
+      </c>
+      <c r="D56" s="1">
+        <f>($C18-$G$8)^2</f>
+        <v>1089</v>
+      </c>
+      <c r="E56" s="1">
+        <f>($C18-$G$9)^2</f>
+        <v>1264.1975308641977</v>
+      </c>
+      <c r="F56" s="1">
+        <f>($C18-$G$10)^2</f>
+        <v>1600</v>
+      </c>
+      <c r="G56" s="1">
+        <f>($C18-$G$11)^2</f>
+        <v>1600</v>
+      </c>
+      <c r="H56" s="1">
+        <f>($C18-$G$12)^2</f>
+        <v>1284.0277777777781</v>
+      </c>
+      <c r="I56" s="1">
+        <f>($C18-$G$13)^2</f>
+        <v>912.04000000000019</v>
+      </c>
+      <c r="J56" s="1">
+        <f>($C18-$G$14)^2</f>
+        <v>462.25</v>
+      </c>
+      <c r="K56" s="1">
+        <f>($C18-$G$15)^2</f>
+        <v>69.444444444444429</v>
+      </c>
+      <c r="L56" s="1">
+        <f>($C18-$G$16)^2</f>
+        <v>56.25</v>
+      </c>
+      <c r="M56" s="1">
+        <f>($C18-$G$17)^2</f>
+        <v>225</v>
+      </c>
+      <c r="N56" s="2">
+        <f>($C18-$F$18)^2</f>
+        <v>788.31360946745576</v>
+      </c>
+      <c r="O56" s="2">
+        <f>($C18-$F$19)^2</f>
+        <v>736.73469387755119</v>
+      </c>
       <c r="T56"/>
       <c r="U56"/>
       <c r="V56"/>
@@ -6170,20 +7108,62 @@
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57"/>
-      <c r="B57"/>
-      <c r="C57"/>
-      <c r="D57"/>
-      <c r="E57"/>
-      <c r="F57"/>
-      <c r="G57"/>
-      <c r="H57"/>
-      <c r="I57"/>
-      <c r="J57"/>
-      <c r="K57"/>
-      <c r="L57"/>
-      <c r="M57"/>
-      <c r="N57"/>
-      <c r="O57"/>
+      <c r="B57" s="1">
+        <f>(C19-$G$6)^2</f>
+        <v>200.69444444444437</v>
+      </c>
+      <c r="C57" s="1">
+        <f>(C19-$G$7)^2</f>
+        <v>253.09917355371891</v>
+      </c>
+      <c r="D57" s="1">
+        <f>($C19-$G$8)^2</f>
+        <v>324</v>
+      </c>
+      <c r="E57" s="1">
+        <f>($C19-$G$9)^2</f>
+        <v>422.53086419753095</v>
+      </c>
+      <c r="F57" s="1">
+        <f>($C19-$G$10)^2</f>
+        <v>625</v>
+      </c>
+      <c r="G57" s="1">
+        <f>($C19-$G$11)^2</f>
+        <v>625</v>
+      </c>
+      <c r="H57" s="1">
+        <f>($C19-$G$12)^2</f>
+        <v>434.02777777777789</v>
+      </c>
+      <c r="I57" s="1">
+        <f>($C19-$G$13)^2</f>
+        <v>231.04000000000008</v>
+      </c>
+      <c r="J57" s="1">
+        <f>($C19-$G$14)^2</f>
+        <v>42.25</v>
+      </c>
+      <c r="K57" s="1">
+        <f>($C19-$G$15)^2</f>
+        <v>44.444444444444457</v>
+      </c>
+      <c r="L57" s="1">
+        <f>($C19-$G$16)^2</f>
+        <v>56.25</v>
+      </c>
+      <c r="M57" s="1">
+        <f>($C19-$G$18)^2</f>
+        <v>0</v>
+      </c>
+      <c r="N57" s="1">
+        <f>($C19-$G$19)^2</f>
+        <v>0</v>
+      </c>
+      <c r="O57" s="2">
+        <f>($C19-$F$19)^2</f>
+        <v>147.4489795918368</v>
+      </c>
       <c r="P57"/>
       <c r="Q57"/>
       <c r="R57"/>
@@ -6203,20 +7183,6 @@
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
-      <c r="F58"/>
-      <c r="G58"/>
-      <c r="H58"/>
-      <c r="I58"/>
-      <c r="J58"/>
-      <c r="K58"/>
-      <c r="L58"/>
-      <c r="M58"/>
-      <c r="N58"/>
-      <c r="O58"/>
-      <c r="P58"/>
-      <c r="Q58"/>
       <c r="R58"/>
       <c r="S58"/>
       <c r="T58"/>
@@ -6234,20 +7200,6 @@
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59"/>
-      <c r="D59"/>
-      <c r="E59"/>
-      <c r="F59"/>
-      <c r="G59"/>
-      <c r="H59"/>
-      <c r="I59"/>
-      <c r="J59"/>
-      <c r="K59"/>
-      <c r="L59"/>
-      <c r="M59"/>
-      <c r="N59"/>
-      <c r="O59"/>
-      <c r="P59"/>
-      <c r="Q59"/>
       <c r="R59"/>
       <c r="S59"/>
       <c r="T59"/>
@@ -6265,20 +7217,6 @@
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
-      <c r="D60"/>
-      <c r="E60"/>
-      <c r="F60"/>
-      <c r="G60"/>
-      <c r="H60"/>
-      <c r="I60"/>
-      <c r="J60"/>
-      <c r="K60"/>
-      <c r="L60"/>
-      <c r="M60"/>
-      <c r="N60"/>
-      <c r="O60"/>
-      <c r="P60"/>
-      <c r="Q60"/>
       <c r="R60"/>
       <c r="S60"/>
       <c r="T60"/>
@@ -6296,20 +7234,6 @@
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
-      <c r="D61"/>
-      <c r="E61"/>
-      <c r="F61"/>
-      <c r="G61"/>
-      <c r="H61"/>
-      <c r="I61"/>
-      <c r="J61"/>
-      <c r="K61"/>
-      <c r="L61"/>
-      <c r="M61"/>
-      <c r="N61"/>
-      <c r="O61"/>
-      <c r="P61"/>
-      <c r="Q61"/>
       <c r="R61"/>
       <c r="S61"/>
       <c r="T61"/>
@@ -6327,20 +7251,6 @@
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
-      <c r="D62"/>
-      <c r="E62"/>
-      <c r="F62"/>
-      <c r="G62"/>
-      <c r="H62"/>
-      <c r="I62"/>
-      <c r="J62"/>
-      <c r="K62"/>
-      <c r="L62"/>
-      <c r="M62"/>
-      <c r="N62"/>
-      <c r="O62"/>
-      <c r="P62"/>
-      <c r="Q62"/>
       <c r="R62"/>
       <c r="S62"/>
       <c r="T62"/>
@@ -6358,20 +7268,6 @@
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63"/>
-      <c r="D63"/>
-      <c r="E63"/>
-      <c r="F63"/>
-      <c r="G63"/>
-      <c r="H63"/>
-      <c r="I63"/>
-      <c r="J63"/>
-      <c r="K63"/>
-      <c r="L63"/>
-      <c r="M63"/>
-      <c r="N63"/>
-      <c r="O63"/>
-      <c r="P63"/>
-      <c r="Q63"/>
       <c r="R63"/>
       <c r="S63"/>
       <c r="T63"/>
@@ -6389,20 +7285,6 @@
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
-      <c r="D64"/>
-      <c r="E64"/>
-      <c r="F64"/>
-      <c r="G64"/>
-      <c r="H64"/>
-      <c r="I64"/>
-      <c r="J64"/>
-      <c r="K64"/>
-      <c r="L64"/>
-      <c r="M64"/>
-      <c r="N64"/>
-      <c r="O64"/>
-      <c r="P64"/>
-      <c r="Q64"/>
       <c r="R64"/>
       <c r="S64"/>
       <c r="T64"/>
@@ -6420,20 +7302,6 @@
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
-      <c r="D65"/>
-      <c r="E65"/>
-      <c r="F65"/>
-      <c r="G65"/>
-      <c r="H65"/>
-      <c r="I65"/>
-      <c r="J65"/>
-      <c r="K65"/>
-      <c r="L65"/>
-      <c r="M65"/>
-      <c r="N65"/>
-      <c r="O65"/>
-      <c r="P65"/>
-      <c r="Q65"/>
       <c r="R65"/>
       <c r="S65"/>
       <c r="T65"/>
@@ -6451,20 +7319,6 @@
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
-      <c r="D66"/>
-      <c r="E66"/>
-      <c r="F66"/>
-      <c r="G66"/>
-      <c r="H66"/>
-      <c r="I66"/>
-      <c r="J66"/>
-      <c r="K66"/>
-      <c r="L66"/>
-      <c r="M66"/>
-      <c r="N66"/>
-      <c r="O66"/>
-      <c r="P66"/>
-      <c r="Q66"/>
       <c r="R66"/>
       <c r="S66"/>
       <c r="T66"/>
@@ -6482,20 +7336,6 @@
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67"/>
-      <c r="D67"/>
-      <c r="E67"/>
-      <c r="F67"/>
-      <c r="G67"/>
-      <c r="H67"/>
-      <c r="I67"/>
-      <c r="J67"/>
-      <c r="K67"/>
-      <c r="L67"/>
-      <c r="M67"/>
-      <c r="N67"/>
-      <c r="O67"/>
-      <c r="P67"/>
-      <c r="Q67"/>
       <c r="R67"/>
       <c r="S67"/>
       <c r="T67"/>
@@ -6513,20 +7353,6 @@
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
-      <c r="D68"/>
-      <c r="E68"/>
-      <c r="F68"/>
-      <c r="G68"/>
-      <c r="H68"/>
-      <c r="I68"/>
-      <c r="J68"/>
-      <c r="K68"/>
-      <c r="L68"/>
-      <c r="M68"/>
-      <c r="N68"/>
-      <c r="O68"/>
-      <c r="P68"/>
-      <c r="Q68"/>
       <c r="R68"/>
       <c r="S68"/>
       <c r="T68"/>
@@ -6544,20 +7370,6 @@
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
-      <c r="D69"/>
-      <c r="E69"/>
-      <c r="F69"/>
-      <c r="G69"/>
-      <c r="H69"/>
-      <c r="I69"/>
-      <c r="J69"/>
-      <c r="K69"/>
-      <c r="L69"/>
-      <c r="M69"/>
-      <c r="N69"/>
-      <c r="O69"/>
-      <c r="P69"/>
-      <c r="Q69"/>
       <c r="R69"/>
       <c r="S69"/>
       <c r="T69"/>
@@ -6575,20 +7387,6 @@
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
-      <c r="D70"/>
-      <c r="E70"/>
-      <c r="F70"/>
-      <c r="G70"/>
-      <c r="H70"/>
-      <c r="I70"/>
-      <c r="J70"/>
-      <c r="K70"/>
-      <c r="L70"/>
-      <c r="M70"/>
-      <c r="N70"/>
-      <c r="O70"/>
-      <c r="P70"/>
-      <c r="Q70"/>
       <c r="R70"/>
       <c r="S70"/>
       <c r="T70"/>
@@ -6606,20 +7404,6 @@
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
-      <c r="D71"/>
-      <c r="E71"/>
-      <c r="F71"/>
-      <c r="G71"/>
-      <c r="H71"/>
-      <c r="I71"/>
-      <c r="J71"/>
-      <c r="K71"/>
-      <c r="L71"/>
-      <c r="M71"/>
-      <c r="N71"/>
-      <c r="O71"/>
-      <c r="P71"/>
-      <c r="Q71"/>
       <c r="R71"/>
       <c r="S71"/>
       <c r="T71"/>
@@ -6637,20 +7421,6 @@
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
-      <c r="D72"/>
-      <c r="E72"/>
-      <c r="F72"/>
-      <c r="G72"/>
-      <c r="H72"/>
-      <c r="I72"/>
-      <c r="J72"/>
-      <c r="K72"/>
-      <c r="L72"/>
-      <c r="M72"/>
-      <c r="N72"/>
-      <c r="O72"/>
-      <c r="P72"/>
-      <c r="Q72"/>
       <c r="R72"/>
       <c r="S72"/>
       <c r="T72"/>
@@ -6668,20 +7438,6 @@
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
-      <c r="D73"/>
-      <c r="E73"/>
-      <c r="F73"/>
-      <c r="G73"/>
-      <c r="H73"/>
-      <c r="I73"/>
-      <c r="J73"/>
-      <c r="K73"/>
-      <c r="L73"/>
-      <c r="M73"/>
-      <c r="N73"/>
-      <c r="O73"/>
-      <c r="P73"/>
-      <c r="Q73"/>
       <c r="R73"/>
       <c r="S73"/>
       <c r="T73"/>
@@ -7285,7 +8041,7 @@
       <c r="AC92"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C42:P42">
+  <conditionalFormatting sqref="B23:O23">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -7315,7 +8071,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C42:P42</xm:sqref>
+          <xm:sqref>B23:O23</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -7327,8 +8083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D84A23-05C1-4943-AC74-424844BD79C9}">
   <dimension ref="A1:AC92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -7376,7 +8132,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
@@ -7408,13 +8164,13 @@
       </c>
       <c r="G6" s="1">
         <f>AVERAGE(C8:$C$19)</f>
-        <v>56.833333333333336</v>
+        <v>57.416666666666664</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1">
         <v>10</v>
@@ -7429,13 +8185,13 @@
       </c>
       <c r="G7" s="1">
         <f>AVERAGE(C9:$C$19)</f>
-        <v>59.272727272727273</v>
+        <v>59.909090909090907</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1">
         <v>30</v>
@@ -7450,13 +8206,13 @@
       </c>
       <c r="G8" s="1">
         <f>AVERAGE(C10:$C$19)</f>
-        <v>62.2</v>
+        <v>62.9</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1">
         <v>30</v>
@@ -7471,13 +8227,13 @@
       </c>
       <c r="G9" s="1">
         <f>AVERAGE(C11:$C$19)</f>
-        <v>58.222222222222221</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1">
         <v>98</v>
@@ -7492,13 +8248,13 @@
       </c>
       <c r="G10" s="1">
         <f>AVERAGE(C12:$C$19)</f>
-        <v>53.375</v>
+        <v>54.25</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1">
         <v>97</v>
@@ -7513,13 +8269,13 @@
       </c>
       <c r="G11" s="1">
         <f>AVERAGE(C13:$C$19)</f>
-        <v>46.857142857142854</v>
+        <v>47.857142857142854</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1">
         <v>99</v>
@@ -7534,13 +8290,13 @@
       </c>
       <c r="G12" s="1">
         <f>AVERAGE(C14:$C$19)</f>
-        <v>42.166666666666664</v>
+        <v>43.333333333333336</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
         <v>75</v>
@@ -7555,13 +8311,13 @@
       </c>
       <c r="G13" s="1">
         <f>AVERAGE(C15:$C$19)</f>
-        <v>35.799999999999997</v>
+        <v>37.200000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1">
         <v>74</v>
@@ -7576,13 +8332,13 @@
       </c>
       <c r="G14" s="1">
         <f>AVERAGE(C16:$C$19)</f>
-        <v>26</v>
+        <v>27.75</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1">
         <v>75</v>
@@ -7597,13 +8353,13 @@
       </c>
       <c r="G15" s="1">
         <f>AVERAGE(C17:$C$19)</f>
-        <v>11</v>
+        <v>13.333333333333334</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C16" s="1">
         <v>71</v>
@@ -7618,13 +8374,13 @@
       </c>
       <c r="G16" s="1">
         <f>AVERAGE(C18:$C$19)</f>
-        <v>6.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="1">
         <v>20</v>
@@ -7639,13 +8395,13 @@
       </c>
       <c r="G17" s="1">
         <f>AVERAGE(C19:$C$19)</f>
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C18" s="1">
         <v>10</v>
@@ -7660,16 +8416,16 @@
       </c>
       <c r="G18" s="1">
         <f>AVERAGE(C$19:$C20)</f>
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C19" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="1"/>
@@ -7677,66 +8433,84 @@
       </c>
       <c r="F19" s="1">
         <f>AVERAGE($C$6:C19)</f>
-        <v>50.142857142857146</v>
+        <v>50.642857142857146</v>
       </c>
       <c r="G19" s="1">
         <f>AVERAGE(C$19:$C21)</f>
-        <v>3</v>
-      </c>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" ht="19.7" x14ac:dyDescent="0.35">
+      <c r="C23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C24" s="1">
+      <c r="C24" s="5">
         <v>1</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="5">
         <f t="shared" ref="D24:P24" si="2">C24+1</f>
         <v>2</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="5">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="5">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="5">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="5">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="5">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="5">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="5">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="5">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24" s="5">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="N24" s="1">
+      <c r="N24" s="5">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="5">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24" s="5">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
@@ -7814,13 +8588,13 @@
       </c>
       <c r="P26" s="2">
         <f t="shared" ref="P26:P39" si="11">($C6-$F$19)^2</f>
-        <v>1611.4489795918371</v>
+        <v>1651.8418367346942</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C27" s="1">
         <f t="shared" ref="C27:C39" si="12">(C7-$G$6)^2</f>
-        <v>2193.3611111111113</v>
+        <v>2248.3402777777774</v>
       </c>
       <c r="D27" s="2">
         <f>(C7-$F$7)^2</f>
@@ -7872,17 +8646,17 @@
       </c>
       <c r="P27" s="2">
         <f t="shared" si="11"/>
-        <v>1611.4489795918371</v>
+        <v>1651.8418367346942</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C28" s="1">
         <f t="shared" si="12"/>
-        <v>720.02777777777794</v>
+        <v>751.67361111111097</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" ref="D28:D39" si="13">(C8-$G$7)^2</f>
-        <v>856.89256198347107</v>
+        <v>894.55371900826435</v>
       </c>
       <c r="E28" s="2">
         <f>(E8-$F$8)^2</f>
@@ -7930,21 +8704,21 @@
       </c>
       <c r="P28" s="2">
         <f t="shared" si="11"/>
-        <v>405.73469387755114</v>
+        <v>426.1275510204083</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C29" s="1">
         <f t="shared" si="12"/>
-        <v>720.02777777777794</v>
+        <v>751.67361111111097</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="13"/>
-        <v>856.89256198347107</v>
+        <v>894.55371900826435</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" ref="E29:E39" si="14">($C9-$G$8)^2</f>
-        <v>1036.8400000000001</v>
+        <v>1082.4099999999999</v>
       </c>
       <c r="F29" s="2">
         <f>($C9-$F$9)^2</f>
@@ -7988,25 +8762,25 @@
       </c>
       <c r="P29" s="2">
         <f t="shared" si="11"/>
-        <v>405.73469387755114</v>
+        <v>426.1275510204083</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C30" s="1">
         <f t="shared" si="12"/>
-        <v>1694.6944444444443</v>
+        <v>1647.0069444444446</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="13"/>
-        <v>1499.8016528925618</v>
+        <v>1450.9173553719011</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="14"/>
-        <v>1281.6399999999999</v>
+        <v>1232.01</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" ref="F30:F39" si="15">($C10-$G$9)^2</f>
-        <v>1582.2716049382716</v>
+        <v>1521</v>
       </c>
       <c r="G30" s="2">
         <f>($C10-$F$10)^2</f>
@@ -8046,29 +8820,29 @@
       </c>
       <c r="P30" s="2">
         <f t="shared" si="11"/>
-        <v>2290.3061224489793</v>
+        <v>2242.6989795918366</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C31" s="1">
         <f t="shared" si="12"/>
-        <v>1613.3611111111109</v>
+        <v>1566.8402777777781</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="13"/>
-        <v>1423.3471074380166</v>
+        <v>1375.7355371900828</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="14"/>
-        <v>1211.0399999999997</v>
+        <v>1162.8100000000002</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="15"/>
-        <v>1503.7160493827162</v>
+        <v>1444</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" ref="G31:G39" si="16">($C11-$G$10)^2</f>
-        <v>1903.140625</v>
+        <v>1827.5625</v>
       </c>
       <c r="H31" s="2">
         <f t="shared" si="3"/>
@@ -8104,33 +8878,33 @@
       </c>
       <c r="P31" s="2">
         <f t="shared" si="11"/>
-        <v>2195.5918367346935</v>
+        <v>2148.9846938775509</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C32" s="1">
         <f t="shared" si="12"/>
-        <v>1778.0277777777776</v>
+        <v>1729.1736111111113</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="13"/>
-        <v>1578.2561983471073</v>
+        <v>1528.0991735537193</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="14"/>
-        <v>1354.2399999999998</v>
+        <v>1303.21</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="15"/>
-        <v>1662.8271604938273</v>
+        <v>1600</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="16"/>
-        <v>2081.640625</v>
+        <v>2002.5625</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" ref="H32:H39" si="17">($C12-$G$11)^2</f>
-        <v>2718.8775510204086</v>
+        <v>2615.591836734694</v>
       </c>
       <c r="I32" s="2">
         <f t="shared" si="4"/>
@@ -8162,37 +8936,37 @@
       </c>
       <c r="P32" s="2">
         <f t="shared" si="11"/>
-        <v>2387.0204081632651</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+        <v>2338.413265306122</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C33" s="1">
         <f t="shared" si="12"/>
-        <v>330.02777777777771</v>
+        <v>309.1736111111112</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="13"/>
-        <v>247.34710743801651</v>
+        <v>227.73553719008271</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" si="14"/>
-        <v>163.83999999999992</v>
+        <v>146.41000000000003</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="15"/>
-        <v>281.49382716049388</v>
+        <v>256</v>
       </c>
       <c r="G33" s="1">
         <f t="shared" si="16"/>
-        <v>467.640625</v>
+        <v>430.5625</v>
       </c>
       <c r="H33" s="1">
         <f t="shared" si="17"/>
-        <v>792.02040816326553</v>
+        <v>736.73469387755119</v>
       </c>
       <c r="I33" s="1">
         <f t="shared" ref="I33:I39" si="18">($C13-$G$12)^2</f>
-        <v>1078.0277777777778</v>
+        <v>1002.7777777777776</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="5"/>
@@ -8220,41 +8994,50 @@
       </c>
       <c r="P33" s="2">
         <f t="shared" si="11"/>
-        <v>617.87755102040796</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+        <v>593.27040816326519</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W33" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C34" s="1">
         <f t="shared" si="12"/>
-        <v>294.69444444444434</v>
+        <v>275.00694444444451</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="13"/>
-        <v>216.89256198347107</v>
+        <v>198.55371900826452</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" si="14"/>
-        <v>139.23999999999992</v>
+        <v>123.21000000000004</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="15"/>
-        <v>248.93827160493831</v>
+        <v>225</v>
       </c>
       <c r="G34" s="1">
         <f t="shared" si="16"/>
-        <v>425.390625</v>
+        <v>390.0625</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" si="17"/>
-        <v>736.73469387755119</v>
+        <v>683.44897959183686</v>
       </c>
       <c r="I34" s="1">
         <f t="shared" si="18"/>
-        <v>1013.3611111111113</v>
+        <v>940.44444444444434</v>
       </c>
       <c r="J34" s="1">
         <f t="shared" ref="J34:J39" si="19">($C14-$G$13)^2</f>
-        <v>1459.2400000000002</v>
+        <v>1354.2399999999998</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="6"/>
@@ -8278,45 +9061,53 @@
       </c>
       <c r="P34" s="2">
         <f t="shared" si="11"/>
-        <v>569.1632653061223</v>
-      </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+        <v>545.55612244897941</v>
+      </c>
+      <c r="V34" s="1">
+        <f>E6</f>
+        <v>1</v>
+      </c>
+      <c r="W34" s="1">
+        <f>(MIN(C42:P42))</f>
+        <v>865.77926587301602</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C35" s="1">
         <f t="shared" si="12"/>
-        <v>330.02777777777771</v>
+        <v>309.1736111111112</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="13"/>
-        <v>247.34710743801651</v>
+        <v>227.73553719008271</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="14"/>
-        <v>163.83999999999992</v>
+        <v>146.41000000000003</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="15"/>
-        <v>281.49382716049388</v>
+        <v>256</v>
       </c>
       <c r="G35" s="1">
         <f t="shared" si="16"/>
-        <v>467.640625</v>
+        <v>430.5625</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" si="17"/>
-        <v>792.02040816326553</v>
+        <v>736.73469387755119</v>
       </c>
       <c r="I35" s="1">
         <f t="shared" si="18"/>
-        <v>1078.0277777777778</v>
+        <v>1002.7777777777776</v>
       </c>
       <c r="J35" s="1">
         <f t="shared" si="19"/>
-        <v>1536.6400000000003</v>
+        <v>1428.8399999999997</v>
       </c>
       <c r="K35" s="1">
         <f>($C15-$G$14)^2</f>
-        <v>2401</v>
+        <v>2232.5625</v>
       </c>
       <c r="L35" s="2">
         <f t="shared" si="7"/>
@@ -8336,49 +9127,57 @@
       </c>
       <c r="P35" s="2">
         <f t="shared" si="11"/>
-        <v>617.87755102040796</v>
-      </c>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+        <v>593.27040816326519</v>
+      </c>
+      <c r="V35" s="1">
+        <f>E19</f>
+        <v>14</v>
+      </c>
+      <c r="W35" s="1">
+        <f>W34</f>
+        <v>865.77926587301602</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C36" s="1">
         <f t="shared" si="12"/>
-        <v>200.69444444444437</v>
+        <v>184.50694444444451</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="13"/>
-        <v>137.52892561983469</v>
+        <v>123.00826446280998</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="14"/>
-        <v>77.439999999999955</v>
+        <v>65.610000000000028</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="15"/>
-        <v>163.27160493827162</v>
+        <v>144</v>
       </c>
       <c r="G36" s="1">
         <f t="shared" si="16"/>
-        <v>310.640625</v>
+        <v>280.5625</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" si="17"/>
-        <v>582.8775510204083</v>
+        <v>535.59183673469397</v>
       </c>
       <c r="I36" s="1">
         <f t="shared" si="18"/>
-        <v>831.3611111111112</v>
+        <v>765.44444444444434</v>
       </c>
       <c r="J36" s="1">
         <f t="shared" si="19"/>
-        <v>1239.0400000000002</v>
+        <v>1142.4399999999998</v>
       </c>
       <c r="K36" s="1">
         <f>($C16-$G$14)^2</f>
-        <v>2025</v>
+        <v>1870.5625</v>
       </c>
       <c r="L36" s="1">
         <f>($C16-$G$15)^2</f>
-        <v>3600</v>
+        <v>3325.4444444444443</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="8"/>
@@ -8394,53 +9193,53 @@
       </c>
       <c r="P36" s="2">
         <f t="shared" si="11"/>
-        <v>435.02040816326519</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+        <v>414.4132653061223</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C37" s="1">
         <f t="shared" si="12"/>
-        <v>1356.6944444444446</v>
+        <v>1400.0069444444443</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="13"/>
-        <v>1542.3471074380166</v>
+        <v>1592.7355371900824</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="14"/>
-        <v>1780.8400000000001</v>
+        <v>1840.4099999999999</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="15"/>
-        <v>1460.9382716049381</v>
+        <v>1521</v>
       </c>
       <c r="G37" s="1">
         <f t="shared" si="16"/>
-        <v>1113.890625</v>
+        <v>1173.0625</v>
       </c>
       <c r="H37" s="1">
         <f t="shared" si="17"/>
-        <v>721.30612244897941</v>
+        <v>776.02040816326519</v>
       </c>
       <c r="I37" s="1">
         <f t="shared" si="18"/>
-        <v>491.36111111111103</v>
+        <v>544.44444444444457</v>
       </c>
       <c r="J37" s="1">
         <f t="shared" si="19"/>
-        <v>249.6399999999999</v>
+        <v>295.84000000000009</v>
       </c>
       <c r="K37" s="1">
         <f>($C17-$G$14)^2</f>
-        <v>36</v>
+        <v>60.0625</v>
       </c>
       <c r="L37" s="1">
         <f>($C17-$G$15)^2</f>
-        <v>81</v>
+        <v>44.444444444444436</v>
       </c>
       <c r="M37" s="1">
         <f>($C17-$G$16)^2</f>
-        <v>182.25</v>
+        <v>100</v>
       </c>
       <c r="N37" s="2">
         <f t="shared" si="9"/>
@@ -8452,57 +9251,57 @@
       </c>
       <c r="P37" s="2">
         <f t="shared" si="11"/>
-        <v>908.59183673469408</v>
-      </c>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+        <v>938.98469387755119</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C38" s="1">
         <f t="shared" si="12"/>
-        <v>2193.3611111111113</v>
+        <v>2248.3402777777774</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="13"/>
-        <v>2427.8016528925618</v>
+        <v>2490.9173553719006</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="14"/>
-        <v>2724.84</v>
+        <v>2798.41</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="15"/>
-        <v>2325.3827160493825</v>
+        <v>2401</v>
       </c>
       <c r="G38" s="1">
         <f t="shared" si="16"/>
-        <v>1881.390625</v>
+        <v>1958.0625</v>
       </c>
       <c r="H38" s="1">
         <f t="shared" si="17"/>
-        <v>1358.4489795918364</v>
+        <v>1433.1632653061222</v>
       </c>
       <c r="I38" s="1">
         <f t="shared" si="18"/>
-        <v>1034.6944444444443</v>
+        <v>1111.1111111111113</v>
       </c>
       <c r="J38" s="1">
         <f t="shared" si="19"/>
-        <v>665.63999999999987</v>
+        <v>739.84000000000015</v>
       </c>
       <c r="K38" s="1">
         <f>($C18-$G$14)^2</f>
-        <v>256</v>
+        <v>315.0625</v>
       </c>
       <c r="L38" s="1">
         <f>($C18-$G$15)^2</f>
-        <v>1</v>
+        <v>11.111111111111114</v>
       </c>
       <c r="M38" s="1">
         <f>($C18-$G$16)^2</f>
-        <v>12.25</v>
+        <v>0</v>
       </c>
       <c r="N38" s="1">
         <f>($C18-$G$17)^2</f>
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="O38" s="2">
         <f t="shared" si="10"/>
@@ -8510,53 +9309,53 @@
       </c>
       <c r="P38" s="2">
         <f t="shared" si="11"/>
-        <v>1611.4489795918371</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+        <v>1651.8418367346942</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C39" s="1">
         <f t="shared" si="12"/>
-        <v>2898.0277777777778</v>
+        <v>2248.3402777777774</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="13"/>
-        <v>3166.6198347107438</v>
+        <v>2490.9173553719006</v>
       </c>
       <c r="E39" s="1">
         <f t="shared" si="14"/>
-        <v>3504.6400000000003</v>
+        <v>2798.41</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="15"/>
-        <v>3049.4938271604938</v>
+        <v>2401</v>
       </c>
       <c r="G39" s="1">
         <f t="shared" si="16"/>
-        <v>2537.640625</v>
+        <v>1958.0625</v>
       </c>
       <c r="H39" s="1">
         <f t="shared" si="17"/>
-        <v>1923.4489795918364</v>
+        <v>1433.1632653061222</v>
       </c>
       <c r="I39" s="1">
         <f t="shared" si="18"/>
-        <v>1534.0277777777776</v>
+        <v>1111.1111111111113</v>
       </c>
       <c r="J39" s="1">
         <f t="shared" si="19"/>
-        <v>1075.8399999999999</v>
+        <v>739.84000000000015</v>
       </c>
       <c r="K39" s="1">
         <f>($C19-$G$14)^2</f>
-        <v>529</v>
+        <v>315.0625</v>
       </c>
       <c r="L39" s="1">
         <f>($C19-$G$15)^2</f>
-        <v>64</v>
+        <v>11.111111111111114</v>
       </c>
       <c r="M39" s="1">
         <f>($C19-$G$16)^2</f>
-        <v>12.25</v>
+        <v>0</v>
       </c>
       <c r="N39" s="1">
         <f>($C19-$G$18)^2</f>
@@ -8568,10 +9367,10 @@
       </c>
       <c r="P39" s="2">
         <f t="shared" si="11"/>
-        <v>2222.4489795918371</v>
-      </c>
-    </row>
-    <row r="41" spans="2:16" ht="19.7" x14ac:dyDescent="0.35">
+        <v>1651.8418367346942</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" ht="19.7" x14ac:dyDescent="0.35">
       <c r="C41" s="3" t="s">
         <v>9</v>
       </c>
@@ -8589,57 +9388,57 @@
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C42" s="1">
         <f>SUM(C26:C39)/COUNT(C26:C39)</f>
-        <v>1165.9305555555557</v>
+        <v>1119.2326388888889</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" ref="D42:P42" si="20">SUM(D26:D39)/COUNT(D26:D39)</f>
-        <v>1014.362455726092</v>
+        <v>963.96162927981118</v>
       </c>
       <c r="E42" s="1">
         <f t="shared" si="20"/>
-        <v>1006.1266666666668</v>
+        <v>953.33166666666671</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="20"/>
-        <v>995.23336860670202</v>
+        <v>938.74571428571437</v>
       </c>
       <c r="G42" s="1">
         <f t="shared" si="20"/>
-        <v>1212.8443700396824</v>
+        <v>1160.1334325396824</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" si="20"/>
-        <v>1312.9067055393589</v>
+        <v>1264.6720116618076</v>
       </c>
       <c r="I42" s="1">
         <f t="shared" si="20"/>
-        <v>1278.0410997732426</v>
+        <v>1236.4160997732426</v>
       </c>
       <c r="J42" s="1">
         <f t="shared" si="20"/>
-        <v>1249.7480070546737</v>
+        <v>1212.2480070546737</v>
       </c>
       <c r="K42" s="1">
         <f t="shared" si="20"/>
-        <v>1199.6828571428573</v>
+        <v>1167.2766071428573</v>
       </c>
       <c r="L42" s="1">
         <f t="shared" si="20"/>
-        <v>1109.7119244391972</v>
+        <v>1084.4341466614194</v>
       </c>
       <c r="M42" s="1">
         <f t="shared" si="20"/>
-        <v>873.40426587301602</v>
+        <v>865.77926587301602</v>
       </c>
       <c r="N42" s="1">
         <f t="shared" si="20"/>
-        <v>973.54015215553693</v>
+        <v>970.04015215553693</v>
       </c>
       <c r="O42" s="1">
         <f t="shared" si="20"/>
@@ -8647,10 +9446,10 @@
       </c>
       <c r="P42" s="1">
         <f t="shared" si="20"/>
-        <v>1277.8367346938778</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+        <v>1233.9438775510207</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>6</v>
       </c>
@@ -8660,58 +9459,58 @@
       </c>
       <c r="D43" s="1">
         <f ca="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E43" s="1">
         <f ca="1"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F43" s="1">
         <f ca="1"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G43" s="1">
         <f ca="1"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H43" s="1">
         <f ca="1"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I43" s="1">
         <f ca="1"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J43" s="1">
         <f ca="1"/>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="K43" s="1">
         <f ca="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L43" s="1">
         <f ca="1"/>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="M43" s="1">
         <f ca="1"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N43" s="1">
         <f ca="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O43" s="1">
         <f ca="1"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="P43" s="1">
         <f ca="1"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
       <c r="H45" s="1" t="s">
         <v>1</v>
       </c>
@@ -8719,22 +9518,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
       <c r="F46" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H46" s="1">
         <f ca="1">HLOOKUP(MIN(C42:P42),B42:P43,2,FALSE)</f>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I46" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
       <c r="H47" s="1">
         <f ca="1">$H$46</f>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I47" s="1">
         <v>100</v>
